--- a/help-script/inputs/24_09_24.xlsx
+++ b/help-script/inputs/24_09_24.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="336">
   <si>
     <t xml:space="preserve">email </t>
   </si>
@@ -1036,7 +1036,7 @@
     <t>subscribedEventsId</t>
   </si>
   <si>
-    <t>4Ms88Hw9i3okcTHI7AV6</t>
+    <t>["4Ms88Hw9i3okcTHI7AV6"]</t>
   </si>
   <si>
     <t>Únete a la comunidad whatsapp del *concierto en el colegio Santa Úrsula* para que te enteres de todas las novedades.</t>
@@ -8525,8 +8525,8 @@
         <v>Avendaño</v>
       </c>
       <c r="D2" s="29" t="str">
-        <f>'Hoja 1'!F2</f>
-        <v>9 4261 6164</v>
+        <f>"+56"&amp;'Hoja 1'!F2</f>
+        <v>+569 4261 6164</v>
       </c>
       <c r="E2" s="29">
         <f>'Hoja 1'!E2</f>
@@ -8554,8 +8554,8 @@
         <v>Marín</v>
       </c>
       <c r="D3" s="29" t="str">
-        <f>'Hoja 1'!F3</f>
-        <v>9 8294 6322</v>
+        <f>"+56"&amp;'Hoja 1'!F3</f>
+        <v>+569 8294 6322</v>
       </c>
       <c r="E3" s="29">
         <f>'Hoja 1'!E3</f>
@@ -8583,8 +8583,8 @@
         <v>Von Appen</v>
       </c>
       <c r="D4" s="29" t="str">
-        <f>'Hoja 1'!F4</f>
-        <v>9 9744 6511</v>
+        <f>"+56"&amp;'Hoja 1'!F4</f>
+        <v>+569 9744 6511</v>
       </c>
       <c r="E4" s="29">
         <f>'Hoja 1'!E4</f>
@@ -8612,8 +8612,8 @@
         <v>Lagos</v>
       </c>
       <c r="D5" s="29" t="str">
-        <f>'Hoja 1'!F5</f>
-        <v>9 9846 1998</v>
+        <f>"+56"&amp;'Hoja 1'!F5</f>
+        <v>+569 9846 1998</v>
       </c>
       <c r="E5" s="29">
         <f>'Hoja 1'!E5</f>
@@ -8641,8 +8641,8 @@
         <v>Garcés</v>
       </c>
       <c r="D6" s="29" t="str">
-        <f>'Hoja 1'!F6</f>
-        <v>9 5226 5343</v>
+        <f>"+56"&amp;'Hoja 1'!F6</f>
+        <v>+569 5226 5343</v>
       </c>
       <c r="E6" s="29">
         <f>'Hoja 1'!E6</f>
@@ -8670,8 +8670,8 @@
         <v>Ebensperger</v>
       </c>
       <c r="D7" s="29" t="str">
-        <f>'Hoja 1'!F7</f>
-        <v>9 6640 8787</v>
+        <f>"+56"&amp;'Hoja 1'!F7</f>
+        <v>+569 6640 8787</v>
       </c>
       <c r="E7" s="29">
         <f>'Hoja 1'!E7</f>
@@ -8699,8 +8699,8 @@
         <v>Valdes</v>
       </c>
       <c r="D8" s="29" t="str">
-        <f>'Hoja 1'!F8</f>
-        <v>9 8501 2198</v>
+        <f>"+56"&amp;'Hoja 1'!F8</f>
+        <v>+569 8501 2198</v>
       </c>
       <c r="E8" s="29">
         <f>'Hoja 1'!E8</f>
@@ -8728,8 +8728,8 @@
         <v>Germain</v>
       </c>
       <c r="D9" s="29" t="str">
-        <f>'Hoja 1'!F9</f>
-        <v>9 9579 7158</v>
+        <f>"+56"&amp;'Hoja 1'!F9</f>
+        <v>+569 9579 7158</v>
       </c>
       <c r="E9" s="29">
         <f>'Hoja 1'!E9</f>
@@ -8757,8 +8757,8 @@
         <v>Lagos</v>
       </c>
       <c r="D10" s="29" t="str">
-        <f>'Hoja 1'!F10</f>
-        <v>9 9825 8380</v>
+        <f>"+56"&amp;'Hoja 1'!F10</f>
+        <v>+569 9825 8380</v>
       </c>
       <c r="E10" s="29">
         <f>'Hoja 1'!E10</f>
@@ -8786,8 +8786,8 @@
         <v>Cherniavsky</v>
       </c>
       <c r="D11" s="29" t="str">
-        <f>'Hoja 1'!F11</f>
-        <v>9 8288 1756</v>
+        <f>"+56"&amp;'Hoja 1'!F11</f>
+        <v>+569 8288 1756</v>
       </c>
       <c r="E11" s="29">
         <f>'Hoja 1'!E11</f>
@@ -8815,8 +8815,8 @@
         <v>Gomez</v>
       </c>
       <c r="D12" s="29" t="str">
-        <f>'Hoja 1'!F12</f>
-        <v>9 6326 0713</v>
+        <f>"+56"&amp;'Hoja 1'!F12</f>
+        <v>+569 6326 0713</v>
       </c>
       <c r="E12" s="29">
         <f>'Hoja 1'!E12</f>
@@ -8844,8 +8844,8 @@
         <v>Schultz</v>
       </c>
       <c r="D13" s="29" t="str">
-        <f>'Hoja 1'!F13</f>
-        <v>9 8199 8599</v>
+        <f>"+56"&amp;'Hoja 1'!F13</f>
+        <v>+569 8199 8599</v>
       </c>
       <c r="E13" s="29">
         <f>'Hoja 1'!E13</f>
@@ -8873,8 +8873,8 @@
         <v>Ovalle</v>
       </c>
       <c r="D14" s="29" t="str">
-        <f>'Hoja 1'!F14</f>
-        <v>9 9336 8303</v>
+        <f>"+56"&amp;'Hoja 1'!F14</f>
+        <v>+569 9336 8303</v>
       </c>
       <c r="E14" s="29">
         <f>'Hoja 1'!E14</f>
@@ -8902,8 +8902,8 @@
         <v>Hederra</v>
       </c>
       <c r="D15" s="29" t="str">
-        <f>'Hoja 1'!F15</f>
-        <v>9 8237 2510</v>
+        <f>"+56"&amp;'Hoja 1'!F15</f>
+        <v>+569 8237 2510</v>
       </c>
       <c r="E15" s="29">
         <f>'Hoja 1'!E15</f>
@@ -8931,8 +8931,8 @@
         <v>Lagos</v>
       </c>
       <c r="D16" s="29" t="str">
-        <f>'Hoja 1'!F16</f>
-        <v>9 9753 8124</v>
+        <f>"+56"&amp;'Hoja 1'!F16</f>
+        <v>+569 9753 8124</v>
       </c>
       <c r="E16" s="29">
         <f>'Hoja 1'!E16</f>
@@ -8960,8 +8960,8 @@
         <v>Bier</v>
       </c>
       <c r="D17" s="29" t="str">
-        <f>'Hoja 1'!F17</f>
-        <v>9 9779 6429</v>
+        <f>"+56"&amp;'Hoja 1'!F17</f>
+        <v>+569 9779 6429</v>
       </c>
       <c r="E17" s="29">
         <f>'Hoja 1'!E17</f>
@@ -8989,8 +8989,8 @@
         <v>Faille</v>
       </c>
       <c r="D18" s="29" t="str">
-        <f>'Hoja 1'!F18</f>
-        <v>9 9886 0126</v>
+        <f>"+56"&amp;'Hoja 1'!F18</f>
+        <v>+569 9886 0126</v>
       </c>
       <c r="E18" s="29">
         <f>'Hoja 1'!E18</f>
@@ -9018,8 +9018,8 @@
         <v>Larrain Queiroz</v>
       </c>
       <c r="D19" s="29" t="str">
-        <f>'Hoja 1'!F19</f>
-        <v>9 7609 7255</v>
+        <f>"+56"&amp;'Hoja 1'!F19</f>
+        <v>+569 7609 7255</v>
       </c>
       <c r="E19" s="29">
         <f>'Hoja 1'!E19</f>
@@ -9047,8 +9047,8 @@
         <v>Roa</v>
       </c>
       <c r="D20" s="29" t="str">
-        <f>'Hoja 1'!F20</f>
-        <v>9 9214 4516</v>
+        <f>"+56"&amp;'Hoja 1'!F20</f>
+        <v>+569 9214 4516</v>
       </c>
       <c r="E20" s="29">
         <f>'Hoja 1'!E20</f>
@@ -9076,8 +9076,8 @@
         <v>Riesco Vicuña</v>
       </c>
       <c r="D21" s="29" t="str">
-        <f>'Hoja 1'!F21</f>
-        <v>9 9020 8985</v>
+        <f>"+56"&amp;'Hoja 1'!F21</f>
+        <v>+569 9020 8985</v>
       </c>
       <c r="E21" s="29">
         <f>'Hoja 1'!E21</f>
@@ -9105,8 +9105,8 @@
         <v>Galleguillos</v>
       </c>
       <c r="D22" s="29" t="str">
-        <f>'Hoja 1'!F22</f>
-        <v>9 4262 3063</v>
+        <f>"+56"&amp;'Hoja 1'!F22</f>
+        <v>+569 4262 3063</v>
       </c>
       <c r="E22" s="29">
         <f>'Hoja 1'!E22</f>
@@ -9134,8 +9134,8 @@
         <v>Garcia Huidobro </v>
       </c>
       <c r="D23" s="29" t="str">
-        <f>'Hoja 1'!F23</f>
-        <v>9 9822 7413</v>
+        <f>"+56"&amp;'Hoja 1'!F23</f>
+        <v>+569 9822 7413</v>
       </c>
       <c r="E23" s="29">
         <f>'Hoja 1'!E23</f>
@@ -9163,8 +9163,8 @@
         <v>Müller</v>
       </c>
       <c r="D24" s="29" t="str">
-        <f>'Hoja 1'!F24</f>
-        <v>9 6587 1743</v>
+        <f>"+56"&amp;'Hoja 1'!F24</f>
+        <v>+569 6587 1743</v>
       </c>
       <c r="E24" s="29">
         <f>'Hoja 1'!E24</f>
@@ -9192,8 +9192,8 @@
         <v>Jeldres</v>
       </c>
       <c r="D25" s="29" t="str">
-        <f>'Hoja 1'!F25</f>
-        <v>9 3456 9320</v>
+        <f>"+56"&amp;'Hoja 1'!F25</f>
+        <v>+569 3456 9320</v>
       </c>
       <c r="E25" s="29">
         <f>'Hoja 1'!E25</f>
@@ -9221,8 +9221,8 @@
         <v>Nuñez Sánchez</v>
       </c>
       <c r="D26" s="29" t="str">
-        <f>'Hoja 1'!F26</f>
-        <v>9 9894 5348</v>
+        <f>"+56"&amp;'Hoja 1'!F26</f>
+        <v>+569 9894 5348</v>
       </c>
       <c r="E26" s="29">
         <f>'Hoja 1'!E26</f>
@@ -9250,8 +9250,8 @@
         <v>Romo Figueroa</v>
       </c>
       <c r="D27" s="29" t="str">
-        <f>'Hoja 1'!F27</f>
-        <v>9 9732 5679</v>
+        <f>"+56"&amp;'Hoja 1'!F27</f>
+        <v>+569 9732 5679</v>
       </c>
       <c r="E27" s="29">
         <f>'Hoja 1'!E27</f>
@@ -9279,8 +9279,8 @@
         <v>Pumpin</v>
       </c>
       <c r="D28" s="29" t="str">
-        <f>'Hoja 1'!F28</f>
-        <v>9 9840 4320</v>
+        <f>"+56"&amp;'Hoja 1'!F28</f>
+        <v>+569 9840 4320</v>
       </c>
       <c r="E28" s="29">
         <f>'Hoja 1'!E28</f>
@@ -9308,8 +9308,8 @@
         <v>Angerstein</v>
       </c>
       <c r="D29" s="29" t="str">
-        <f>'Hoja 1'!F29</f>
-        <v>9 8829 8674</v>
+        <f>"+56"&amp;'Hoja 1'!F29</f>
+        <v>+569 8829 8674</v>
       </c>
       <c r="E29" s="29">
         <f>'Hoja 1'!E29</f>
@@ -9337,8 +9337,8 @@
         <v>OShea</v>
       </c>
       <c r="D30" s="29" t="str">
-        <f>'Hoja 1'!F30</f>
-        <v>9 9863 5607</v>
+        <f>"+56"&amp;'Hoja 1'!F30</f>
+        <v>+569 9863 5607</v>
       </c>
       <c r="E30" s="29">
         <f>'Hoja 1'!E30</f>
@@ -9366,8 +9366,8 @@
         <v>Salazar Bolaño</v>
       </c>
       <c r="D31" s="29" t="str">
-        <f>'Hoja 1'!F31</f>
-        <v>9 9863 3818</v>
+        <f>"+56"&amp;'Hoja 1'!F31</f>
+        <v>+569 9863 3818</v>
       </c>
       <c r="E31" s="29">
         <f>'Hoja 1'!E31</f>
@@ -9395,8 +9395,8 @@
         <v>Yon</v>
       </c>
       <c r="D32" s="29" t="str">
-        <f>'Hoja 1'!F32</f>
-        <v>9 9758 8221</v>
+        <f>"+56"&amp;'Hoja 1'!F32</f>
+        <v>+569 9758 8221</v>
       </c>
       <c r="E32" s="29">
         <f>'Hoja 1'!E32</f>
@@ -9424,8 +9424,8 @@
         <v>Valdes</v>
       </c>
       <c r="D33" s="29" t="str">
-        <f>'Hoja 1'!F33</f>
-        <v>9 7758 1698</v>
+        <f>"+56"&amp;'Hoja 1'!F33</f>
+        <v>+569 7758 1698</v>
       </c>
       <c r="E33" s="29">
         <f>'Hoja 1'!E33</f>
@@ -9453,8 +9453,8 @@
         <v>Barros</v>
       </c>
       <c r="D34" s="29" t="str">
-        <f>'Hoja 1'!F34</f>
-        <v>9 8429 9534</v>
+        <f>"+56"&amp;'Hoja 1'!F34</f>
+        <v>+569 8429 9534</v>
       </c>
       <c r="E34" s="29">
         <f>'Hoja 1'!E34</f>
@@ -9482,8 +9482,8 @@
         <v>Delucchi</v>
       </c>
       <c r="D35" s="29" t="str">
-        <f>'Hoja 1'!F35</f>
-        <v>9 5671 0413</v>
+        <f>"+56"&amp;'Hoja 1'!F35</f>
+        <v>+569 5671 0413</v>
       </c>
       <c r="E35" s="29">
         <f>'Hoja 1'!E35</f>
@@ -9511,8 +9511,8 @@
         <v>Kast</v>
       </c>
       <c r="D36" s="29" t="str">
-        <f>'Hoja 1'!F36</f>
-        <v>9 6249 2200</v>
+        <f>"+56"&amp;'Hoja 1'!F36</f>
+        <v>+569 6249 2200</v>
       </c>
       <c r="E36" s="29">
         <f>'Hoja 1'!E36</f>
@@ -9540,8 +9540,8 @@
         <v>Herrera</v>
       </c>
       <c r="D37" s="29" t="str">
-        <f>'Hoja 1'!F37</f>
-        <v>9 9342 1609</v>
+        <f>"+56"&amp;'Hoja 1'!F37</f>
+        <v>+569 9342 1609</v>
       </c>
       <c r="E37" s="29">
         <f>'Hoja 1'!E37</f>
@@ -9569,8 +9569,8 @@
         <v>Unterhofer</v>
       </c>
       <c r="D38" s="29" t="str">
-        <f>'Hoja 1'!F38</f>
-        <v>9 8239 2635</v>
+        <f>"+56"&amp;'Hoja 1'!F38</f>
+        <v>+569 8239 2635</v>
       </c>
       <c r="E38" s="29">
         <f>'Hoja 1'!E38</f>
@@ -9598,8 +9598,8 @@
         <v>Briones</v>
       </c>
       <c r="D39" s="29" t="str">
-        <f>'Hoja 1'!F39</f>
-        <v>9 9289 7467</v>
+        <f>"+56"&amp;'Hoja 1'!F39</f>
+        <v>+569 9289 7467</v>
       </c>
       <c r="E39" s="29">
         <f>'Hoja 1'!E39</f>
@@ -9627,8 +9627,8 @@
         <v>Branth</v>
       </c>
       <c r="D40" s="29" t="str">
-        <f>'Hoja 1'!F40</f>
-        <v>9 9359 1841</v>
+        <f>"+56"&amp;'Hoja 1'!F40</f>
+        <v>+569 9359 1841</v>
       </c>
       <c r="E40" s="29">
         <f>'Hoja 1'!E40</f>
@@ -9656,8 +9656,8 @@
         <v>Valverde</v>
       </c>
       <c r="D41" s="29" t="str">
-        <f>'Hoja 1'!F41</f>
-        <v>9 8217 4162</v>
+        <f>"+56"&amp;'Hoja 1'!F41</f>
+        <v>+569 8217 4162</v>
       </c>
       <c r="E41" s="29">
         <f>'Hoja 1'!E41</f>
@@ -9685,8 +9685,8 @@
         <v>Gómez O.</v>
       </c>
       <c r="D42" s="29" t="str">
-        <f>'Hoja 1'!F42</f>
-        <v>9 9643 3015</v>
+        <f>"+56"&amp;'Hoja 1'!F42</f>
+        <v>+569 9643 3015</v>
       </c>
       <c r="E42" s="29">
         <f>'Hoja 1'!E42</f>
@@ -9714,8 +9714,8 @@
         <v>Toro</v>
       </c>
       <c r="D43" s="29" t="str">
-        <f>'Hoja 1'!F43</f>
-        <v>9 9239 5445</v>
+        <f>"+56"&amp;'Hoja 1'!F43</f>
+        <v>+569 9239 5445</v>
       </c>
       <c r="E43" s="29">
         <f>'Hoja 1'!E43</f>
@@ -9743,8 +9743,8 @@
         <v>Fonck</v>
       </c>
       <c r="D44" s="29" t="str">
-        <f>'Hoja 1'!F44</f>
-        <v>9 7668 8724</v>
+        <f>"+56"&amp;'Hoja 1'!F44</f>
+        <v>+569 7668 8724</v>
       </c>
       <c r="E44" s="29">
         <f>'Hoja 1'!E44</f>
@@ -9772,8 +9772,8 @@
         <v>Bascuñán</v>
       </c>
       <c r="D45" s="29" t="str">
-        <f>'Hoja 1'!F45</f>
-        <v>9 8159 8421</v>
+        <f>"+56"&amp;'Hoja 1'!F45</f>
+        <v>+569 8159 8421</v>
       </c>
       <c r="E45" s="29">
         <f>'Hoja 1'!E45</f>
@@ -9801,8 +9801,8 @@
         <v>Scherholz</v>
       </c>
       <c r="D46" s="29" t="str">
-        <f>'Hoja 1'!F46</f>
-        <v>9 9382 0869</v>
+        <f>"+56"&amp;'Hoja 1'!F46</f>
+        <v>+569 9382 0869</v>
       </c>
       <c r="E46" s="29">
         <f>'Hoja 1'!E46</f>
@@ -9830,8 +9830,8 @@
         <v>Sieverson</v>
       </c>
       <c r="D47" s="29" t="str">
-        <f>'Hoja 1'!F47</f>
-        <v>9 8575 7457</v>
+        <f>"+56"&amp;'Hoja 1'!F47</f>
+        <v>+569 8575 7457</v>
       </c>
       <c r="E47" s="29">
         <f>'Hoja 1'!E47</f>
@@ -9859,8 +9859,8 @@
         <v>Sutter</v>
       </c>
       <c r="D48" s="29" t="str">
-        <f>'Hoja 1'!F48</f>
-        <v>9 9541 0287</v>
+        <f>"+56"&amp;'Hoja 1'!F48</f>
+        <v>+569 9541 0287</v>
       </c>
       <c r="E48" s="29">
         <f>'Hoja 1'!E48</f>
@@ -9888,8 +9888,8 @@
         <v>Tonkin</v>
       </c>
       <c r="D49" s="29" t="str">
-        <f>'Hoja 1'!F49</f>
-        <v>9 9218 6182</v>
+        <f>"+56"&amp;'Hoja 1'!F49</f>
+        <v>+569 9218 6182</v>
       </c>
       <c r="E49" s="29">
         <f>'Hoja 1'!E49</f>
@@ -9917,8 +9917,8 @@
         <v>Prado</v>
       </c>
       <c r="D50" s="29" t="str">
-        <f>'Hoja 1'!F50</f>
-        <v>9 8808 0831</v>
+        <f>"+56"&amp;'Hoja 1'!F50</f>
+        <v>+569 8808 0831</v>
       </c>
       <c r="E50" s="29">
         <f>'Hoja 1'!E50</f>
@@ -9946,8 +9946,8 @@
         <v>Castillo</v>
       </c>
       <c r="D51" s="29" t="str">
-        <f>'Hoja 1'!F51</f>
-        <v>9 9318 8388</v>
+        <f>"+56"&amp;'Hoja 1'!F51</f>
+        <v>+569 9318 8388</v>
       </c>
       <c r="E51" s="29">
         <f>'Hoja 1'!E51</f>
@@ -9975,8 +9975,8 @@
         <v>Torrealba</v>
       </c>
       <c r="D52" s="29" t="str">
-        <f>'Hoja 1'!F52</f>
-        <v>9 9018 4609</v>
+        <f>"+56"&amp;'Hoja 1'!F52</f>
+        <v>+569 9018 4609</v>
       </c>
       <c r="E52" s="29">
         <f>'Hoja 1'!E52</f>
@@ -10004,8 +10004,8 @@
         <v>Pozo</v>
       </c>
       <c r="D53" s="29" t="str">
-        <f>'Hoja 1'!F53</f>
-        <v>9 9146 0608</v>
+        <f>"+56"&amp;'Hoja 1'!F53</f>
+        <v>+569 9146 0608</v>
       </c>
       <c r="E53" s="29">
         <f>'Hoja 1'!E53</f>
@@ -10033,8 +10033,8 @@
         <v>Dominguez R-T</v>
       </c>
       <c r="D54" s="29" t="str">
-        <f>'Hoja 1'!F54</f>
-        <v>9 8828 7562</v>
+        <f>"+56"&amp;'Hoja 1'!F54</f>
+        <v>+569 8828 7562</v>
       </c>
       <c r="E54" s="29">
         <f>'Hoja 1'!E54</f>
@@ -10062,8 +10062,8 @@
         <v>Toro Anastassiou</v>
       </c>
       <c r="D55" s="29" t="str">
-        <f>'Hoja 1'!F55</f>
-        <v>9 9682 8078</v>
+        <f>"+56"&amp;'Hoja 1'!F55</f>
+        <v>+569 9682 8078</v>
       </c>
       <c r="E55" s="29">
         <f>'Hoja 1'!E55</f>
@@ -10091,8 +10091,8 @@
         <v>Quiroga Newbery</v>
       </c>
       <c r="D56" s="29" t="str">
-        <f>'Hoja 1'!F56</f>
-        <v>9 7440 2072</v>
+        <f>"+56"&amp;'Hoja 1'!F56</f>
+        <v>+569 7440 2072</v>
       </c>
       <c r="E56" s="29">
         <f>'Hoja 1'!E56</f>
@@ -10120,8 +10120,8 @@
         <v>Toro Labbé</v>
       </c>
       <c r="D57" s="29" t="str">
-        <f>'Hoja 1'!F57</f>
-        <v>9 9730 7516</v>
+        <f>"+56"&amp;'Hoja 1'!F57</f>
+        <v>+569 9730 7516</v>
       </c>
       <c r="E57" s="29">
         <f>'Hoja 1'!E57</f>
@@ -10149,8 +10149,8 @@
         <v>Bianch</v>
       </c>
       <c r="D58" s="29" t="str">
-        <f>'Hoja 1'!F58</f>
-        <v>9 9078 8471</v>
+        <f>"+56"&amp;'Hoja 1'!F58</f>
+        <v>+569 9078 8471</v>
       </c>
       <c r="E58" s="29">
         <f>'Hoja 1'!E58</f>
@@ -10178,8 +10178,8 @@
         <v>Ferrer</v>
       </c>
       <c r="D59" s="29" t="str">
-        <f>'Hoja 1'!F59</f>
-        <v>9 9079 3214</v>
+        <f>"+56"&amp;'Hoja 1'!F59</f>
+        <v>+569 9079 3214</v>
       </c>
       <c r="E59" s="29">
         <f>'Hoja 1'!E59</f>
@@ -10207,8 +10207,8 @@
         <v>Ferrer</v>
       </c>
       <c r="D60" s="29" t="str">
-        <f>'Hoja 1'!F60</f>
-        <v>9 9750 3114</v>
+        <f>"+56"&amp;'Hoja 1'!F60</f>
+        <v>+569 9750 3114</v>
       </c>
       <c r="E60" s="29">
         <f>'Hoja 1'!E60</f>
@@ -10236,8 +10236,8 @@
         <v>Redard</v>
       </c>
       <c r="D61" s="29" t="str">
-        <f>'Hoja 1'!F61</f>
-        <v>9 8904 8448</v>
+        <f>"+56"&amp;'Hoja 1'!F61</f>
+        <v>+569 8904 8448</v>
       </c>
       <c r="E61" s="29">
         <f>'Hoja 1'!E61</f>
@@ -10265,8 +10265,8 @@
         <v>Vergara</v>
       </c>
       <c r="D62" s="29" t="str">
-        <f>'Hoja 1'!F62</f>
-        <v>9 7307 2401</v>
+        <f>"+56"&amp;'Hoja 1'!F62</f>
+        <v>+569 7307 2401</v>
       </c>
       <c r="E62" s="29">
         <f>'Hoja 1'!E62</f>
@@ -10294,8 +10294,8 @@
         <v>Recher</v>
       </c>
       <c r="D63" s="29" t="str">
-        <f>'Hoja 1'!F63</f>
-        <v>9 7700 8293</v>
+        <f>"+56"&amp;'Hoja 1'!F63</f>
+        <v>+569 7700 8293</v>
       </c>
       <c r="E63" s="29">
         <f>'Hoja 1'!E63</f>
@@ -10323,8 +10323,8 @@
         <v>Yuraszeck</v>
       </c>
       <c r="D64" s="29" t="str">
-        <f>'Hoja 1'!F64</f>
-        <v>9 9824 8737</v>
+        <f>"+56"&amp;'Hoja 1'!F64</f>
+        <v>+569 9824 8737</v>
       </c>
       <c r="E64" s="29">
         <f>'Hoja 1'!E64</f>
@@ -10352,8 +10352,8 @@
         <v>Urrejola</v>
       </c>
       <c r="D65" s="29" t="str">
-        <f>'Hoja 1'!F65</f>
-        <v>9 9467 6669</v>
+        <f>"+56"&amp;'Hoja 1'!F65</f>
+        <v>+569 9467 6669</v>
       </c>
       <c r="E65" s="29">
         <f>'Hoja 1'!E65</f>
@@ -10381,8 +10381,8 @@
         <v>Recher</v>
       </c>
       <c r="D66" s="29" t="str">
-        <f>'Hoja 1'!F66</f>
-        <v>9 9341 9665</v>
+        <f>"+56"&amp;'Hoja 1'!F66</f>
+        <v>+569 9341 9665</v>
       </c>
       <c r="E66" s="29">
         <f>'Hoja 1'!E66</f>
@@ -10410,8 +10410,8 @@
         <v>Donoso Cuevas</v>
       </c>
       <c r="D67" s="29" t="str">
-        <f>'Hoja 1'!F67</f>
-        <v>9 7400 6532</v>
+        <f>"+56"&amp;'Hoja 1'!F67</f>
+        <v>+569 7400 6532</v>
       </c>
       <c r="E67" s="29">
         <f>'Hoja 1'!E67</f>
@@ -10439,8 +10439,8 @@
         <v>Varas</v>
       </c>
       <c r="D68" s="29" t="str">
-        <f>'Hoja 1'!F68</f>
-        <v>9 9299 1714</v>
+        <f>"+56"&amp;'Hoja 1'!F68</f>
+        <v>+569 9299 1714</v>
       </c>
       <c r="E68" s="29">
         <f>'Hoja 1'!E68</f>
@@ -10468,8 +10468,8 @@
         <v>Izquierdo</v>
       </c>
       <c r="D69" s="29" t="str">
-        <f>'Hoja 1'!F69</f>
-        <v>9 9482 9661</v>
+        <f>"+56"&amp;'Hoja 1'!F69</f>
+        <v>+569 9482 9661</v>
       </c>
       <c r="E69" s="29">
         <f>'Hoja 1'!E69</f>
@@ -10497,8 +10497,8 @@
         <v>Grez</v>
       </c>
       <c r="D70" s="29" t="str">
-        <f>'Hoja 1'!F70</f>
-        <v>9 8288 1588</v>
+        <f>"+56"&amp;'Hoja 1'!F70</f>
+        <v>+569 8288 1588</v>
       </c>
       <c r="E70" s="29">
         <f>'Hoja 1'!E70</f>
@@ -10526,8 +10526,8 @@
         <v>Gajardo</v>
       </c>
       <c r="D71" s="29" t="str">
-        <f>'Hoja 1'!F71</f>
-        <v>9 9494 9321</v>
+        <f>"+56"&amp;'Hoja 1'!F71</f>
+        <v>+569 9494 9321</v>
       </c>
       <c r="E71" s="29">
         <f>'Hoja 1'!E71</f>
@@ -10555,8 +10555,8 @@
         <v/>
       </c>
       <c r="D72" s="29" t="str">
-        <f>'Hoja 1'!F72</f>
-        <v/>
+        <f>"+56"&amp;'Hoja 1'!F72</f>
+        <v>+56</v>
       </c>
       <c r="E72" s="29" t="str">
         <f>'Hoja 1'!E72</f>
@@ -10584,8 +10584,8 @@
         <v/>
       </c>
       <c r="D73" s="29" t="str">
-        <f>'Hoja 1'!F73</f>
-        <v/>
+        <f>"+56"&amp;'Hoja 1'!F73</f>
+        <v>+56</v>
       </c>
       <c r="E73" s="29" t="str">
         <f>'Hoja 1'!E73</f>
@@ -10613,8 +10613,8 @@
         <v/>
       </c>
       <c r="D74" s="29" t="str">
-        <f>'Hoja 1'!F74</f>
-        <v/>
+        <f>"+56"&amp;'Hoja 1'!F74</f>
+        <v>+56</v>
       </c>
       <c r="E74" s="29" t="str">
         <f>'Hoja 1'!E74</f>
@@ -10642,8 +10642,8 @@
         <v/>
       </c>
       <c r="D75" s="29" t="str">
-        <f>'Hoja 1'!F75</f>
-        <v/>
+        <f>"+56"&amp;'Hoja 1'!F75</f>
+        <v>+56</v>
       </c>
       <c r="E75" s="29" t="str">
         <f>'Hoja 1'!E75</f>
@@ -10671,8 +10671,8 @@
         <v/>
       </c>
       <c r="D76" s="29" t="str">
-        <f>'Hoja 1'!F76</f>
-        <v/>
+        <f>"+56"&amp;'Hoja 1'!F76</f>
+        <v>+56</v>
       </c>
       <c r="E76" s="29" t="str">
         <f>'Hoja 1'!E76</f>
@@ -10700,8 +10700,8 @@
         <v/>
       </c>
       <c r="D77" s="29" t="str">
-        <f>'Hoja 1'!F77</f>
-        <v/>
+        <f>"+56"&amp;'Hoja 1'!F77</f>
+        <v>+56</v>
       </c>
       <c r="E77" s="29" t="str">
         <f>'Hoja 1'!E77</f>
@@ -10729,8 +10729,8 @@
         <v/>
       </c>
       <c r="D78" s="29" t="str">
-        <f>'Hoja 1'!F78</f>
-        <v/>
+        <f>"+56"&amp;'Hoja 1'!F78</f>
+        <v>+56</v>
       </c>
       <c r="E78" s="29" t="str">
         <f>'Hoja 1'!E78</f>
@@ -10758,8 +10758,8 @@
         <v/>
       </c>
       <c r="D79" s="29" t="str">
-        <f>'Hoja 1'!F79</f>
-        <v/>
+        <f>"+56"&amp;'Hoja 1'!F79</f>
+        <v>+56</v>
       </c>
       <c r="E79" s="29" t="str">
         <f>'Hoja 1'!E79</f>
@@ -10787,8 +10787,8 @@
         <v/>
       </c>
       <c r="D80" s="29" t="str">
-        <f>'Hoja 1'!F80</f>
-        <v/>
+        <f>"+56"&amp;'Hoja 1'!F80</f>
+        <v>+56</v>
       </c>
       <c r="E80" s="29" t="str">
         <f>'Hoja 1'!E80</f>
@@ -10816,8 +10816,8 @@
         <v/>
       </c>
       <c r="D81" s="29" t="str">
-        <f>'Hoja 1'!F81</f>
-        <v/>
+        <f>"+56"&amp;'Hoja 1'!F81</f>
+        <v>+56</v>
       </c>
       <c r="E81" s="29" t="str">
         <f>'Hoja 1'!E81</f>
@@ -10832,6 +10832,26 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" s="29" t="str">
+        <f>'Hoja 1'!B82</f>
+        <v/>
+      </c>
+      <c r="B82" s="29" t="str">
+        <f>'Hoja 1'!C82</f>
+        <v/>
+      </c>
+      <c r="C82" s="29" t="str">
+        <f>'Hoja 1'!D82</f>
+        <v/>
+      </c>
+      <c r="D82" s="29" t="str">
+        <f>"+56"&amp;'Hoja 1'!F82</f>
+        <v>+56</v>
+      </c>
+      <c r="E82" s="29" t="str">
+        <f>'Hoja 1'!E82</f>
+        <v/>
+      </c>
       <c r="F82" s="29" t="str">
         <f>'Hoja 1'!I82</f>
         <v/>
@@ -10841,6 +10861,26 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" s="29" t="str">
+        <f>'Hoja 1'!B83</f>
+        <v/>
+      </c>
+      <c r="B83" s="29" t="str">
+        <f>'Hoja 1'!C83</f>
+        <v/>
+      </c>
+      <c r="C83" s="29" t="str">
+        <f>'Hoja 1'!D83</f>
+        <v/>
+      </c>
+      <c r="D83" s="29" t="str">
+        <f>"+56"&amp;'Hoja 1'!F83</f>
+        <v>+56</v>
+      </c>
+      <c r="E83" s="29" t="str">
+        <f>'Hoja 1'!E83</f>
+        <v/>
+      </c>
       <c r="F83" s="29" t="str">
         <f>'Hoja 1'!I83</f>
         <v/>
@@ -10850,6 +10890,26 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" s="29" t="str">
+        <f>'Hoja 1'!B84</f>
+        <v/>
+      </c>
+      <c r="B84" s="29" t="str">
+        <f>'Hoja 1'!C84</f>
+        <v/>
+      </c>
+      <c r="C84" s="29" t="str">
+        <f>'Hoja 1'!D84</f>
+        <v/>
+      </c>
+      <c r="D84" s="29" t="str">
+        <f>"+56"&amp;'Hoja 1'!F84</f>
+        <v>+56</v>
+      </c>
+      <c r="E84" s="29" t="str">
+        <f>'Hoja 1'!E84</f>
+        <v/>
+      </c>
       <c r="F84" s="29" t="str">
         <f>'Hoja 1'!I84</f>
         <v/>
@@ -10859,232 +10919,1365 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" s="29" t="str">
+        <f>'Hoja 1'!B85</f>
+        <v/>
+      </c>
+      <c r="B85" s="29" t="str">
+        <f>'Hoja 1'!C85</f>
+        <v/>
+      </c>
+      <c r="C85" s="29" t="str">
+        <f>'Hoja 1'!D85</f>
+        <v/>
+      </c>
+      <c r="D85" s="29" t="str">
+        <f>"+56"&amp;'Hoja 1'!F85</f>
+        <v>+56</v>
+      </c>
+      <c r="E85" s="29" t="str">
+        <f>'Hoja 1'!E85</f>
+        <v/>
+      </c>
+      <c r="F85" s="29" t="str">
+        <f>'Hoja 1'!I85</f>
+        <v/>
+      </c>
       <c r="G85" s="22" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="86">
+      <c r="A86" s="29" t="str">
+        <f>'Hoja 1'!B86</f>
+        <v/>
+      </c>
+      <c r="B86" s="29" t="str">
+        <f>'Hoja 1'!C86</f>
+        <v/>
+      </c>
+      <c r="C86" s="29" t="str">
+        <f>'Hoja 1'!D86</f>
+        <v/>
+      </c>
+      <c r="D86" s="29" t="str">
+        <f>"+56"&amp;'Hoja 1'!F86</f>
+        <v>+56</v>
+      </c>
+      <c r="E86" s="29" t="str">
+        <f>'Hoja 1'!E86</f>
+        <v/>
+      </c>
+      <c r="F86" s="29" t="str">
+        <f>'Hoja 1'!I86</f>
+        <v/>
+      </c>
       <c r="G86" s="22" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="87">
+      <c r="A87" s="29" t="str">
+        <f>'Hoja 1'!B87</f>
+        <v/>
+      </c>
+      <c r="B87" s="29" t="str">
+        <f>'Hoja 1'!C87</f>
+        <v/>
+      </c>
+      <c r="C87" s="29" t="str">
+        <f>'Hoja 1'!D87</f>
+        <v/>
+      </c>
+      <c r="D87" s="29" t="str">
+        <f>"+56"&amp;'Hoja 1'!F87</f>
+        <v>+56</v>
+      </c>
+      <c r="E87" s="29" t="str">
+        <f>'Hoja 1'!E87</f>
+        <v/>
+      </c>
+      <c r="F87" s="29" t="str">
+        <f>'Hoja 1'!I87</f>
+        <v/>
+      </c>
       <c r="G87" s="22" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="88">
+      <c r="A88" s="29" t="str">
+        <f>'Hoja 1'!B88</f>
+        <v/>
+      </c>
+      <c r="B88" s="29" t="str">
+        <f>'Hoja 1'!C88</f>
+        <v/>
+      </c>
+      <c r="C88" s="29" t="str">
+        <f>'Hoja 1'!D88</f>
+        <v/>
+      </c>
+      <c r="D88" s="29" t="str">
+        <f>"+56"&amp;'Hoja 1'!F88</f>
+        <v>+56</v>
+      </c>
+      <c r="E88" s="29" t="str">
+        <f>'Hoja 1'!E88</f>
+        <v/>
+      </c>
+      <c r="F88" s="29" t="str">
+        <f>'Hoja 1'!I88</f>
+        <v/>
+      </c>
       <c r="G88" s="22" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="89">
+      <c r="A89" s="29" t="str">
+        <f>'Hoja 1'!B89</f>
+        <v/>
+      </c>
+      <c r="B89" s="29" t="str">
+        <f>'Hoja 1'!C89</f>
+        <v/>
+      </c>
+      <c r="C89" s="29" t="str">
+        <f>'Hoja 1'!D89</f>
+        <v/>
+      </c>
+      <c r="D89" s="29" t="str">
+        <f>"+56"&amp;'Hoja 1'!F89</f>
+        <v>+56</v>
+      </c>
+      <c r="E89" s="29" t="str">
+        <f>'Hoja 1'!E89</f>
+        <v/>
+      </c>
+      <c r="F89" s="29" t="str">
+        <f>'Hoja 1'!I89</f>
+        <v/>
+      </c>
       <c r="G89" s="22" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="90">
+      <c r="A90" s="29" t="str">
+        <f>'Hoja 1'!B90</f>
+        <v/>
+      </c>
+      <c r="B90" s="29" t="str">
+        <f>'Hoja 1'!C90</f>
+        <v/>
+      </c>
+      <c r="C90" s="29" t="str">
+        <f>'Hoja 1'!D90</f>
+        <v/>
+      </c>
+      <c r="D90" s="29" t="str">
+        <f>"+56"&amp;'Hoja 1'!F90</f>
+        <v>+56</v>
+      </c>
+      <c r="E90" s="29" t="str">
+        <f>'Hoja 1'!E90</f>
+        <v/>
+      </c>
+      <c r="F90" s="29" t="str">
+        <f>'Hoja 1'!I90</f>
+        <v/>
+      </c>
       <c r="G90" s="22" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="91">
+      <c r="A91" s="29" t="str">
+        <f>'Hoja 1'!B91</f>
+        <v/>
+      </c>
+      <c r="B91" s="29" t="str">
+        <f>'Hoja 1'!C91</f>
+        <v/>
+      </c>
+      <c r="C91" s="29" t="str">
+        <f>'Hoja 1'!D91</f>
+        <v/>
+      </c>
+      <c r="D91" s="29" t="str">
+        <f>"+56"&amp;'Hoja 1'!F91</f>
+        <v>+56</v>
+      </c>
+      <c r="E91" s="29" t="str">
+        <f>'Hoja 1'!E91</f>
+        <v/>
+      </c>
+      <c r="F91" s="29" t="str">
+        <f>'Hoja 1'!I91</f>
+        <v/>
+      </c>
       <c r="G91" s="22" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="92">
+      <c r="A92" s="29" t="str">
+        <f>'Hoja 1'!B92</f>
+        <v/>
+      </c>
+      <c r="B92" s="29" t="str">
+        <f>'Hoja 1'!C92</f>
+        <v/>
+      </c>
+      <c r="C92" s="29" t="str">
+        <f>'Hoja 1'!D92</f>
+        <v/>
+      </c>
+      <c r="D92" s="29" t="str">
+        <f>"+56"&amp;'Hoja 1'!F92</f>
+        <v>+56</v>
+      </c>
+      <c r="E92" s="29" t="str">
+        <f>'Hoja 1'!E92</f>
+        <v/>
+      </c>
+      <c r="F92" s="29" t="str">
+        <f>'Hoja 1'!I92</f>
+        <v/>
+      </c>
       <c r="G92" s="22" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="93">
+      <c r="A93" s="29" t="str">
+        <f>'Hoja 1'!B93</f>
+        <v/>
+      </c>
+      <c r="B93" s="29" t="str">
+        <f>'Hoja 1'!C93</f>
+        <v/>
+      </c>
+      <c r="C93" s="29" t="str">
+        <f>'Hoja 1'!D93</f>
+        <v/>
+      </c>
+      <c r="D93" s="29" t="str">
+        <f>"+56"&amp;'Hoja 1'!F93</f>
+        <v>+56</v>
+      </c>
+      <c r="E93" s="29" t="str">
+        <f>'Hoja 1'!E93</f>
+        <v/>
+      </c>
+      <c r="F93" s="29" t="str">
+        <f>'Hoja 1'!I93</f>
+        <v/>
+      </c>
       <c r="G93" s="22" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="94">
+      <c r="A94" s="29" t="str">
+        <f>'Hoja 1'!B94</f>
+        <v/>
+      </c>
+      <c r="B94" s="29" t="str">
+        <f>'Hoja 1'!C94</f>
+        <v/>
+      </c>
+      <c r="C94" s="29" t="str">
+        <f>'Hoja 1'!D94</f>
+        <v/>
+      </c>
+      <c r="D94" s="29" t="str">
+        <f>"+56"&amp;'Hoja 1'!F94</f>
+        <v>+56</v>
+      </c>
+      <c r="E94" s="29" t="str">
+        <f>'Hoja 1'!E94</f>
+        <v/>
+      </c>
+      <c r="F94" s="29" t="str">
+        <f>'Hoja 1'!I94</f>
+        <v/>
+      </c>
       <c r="G94" s="22" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="95">
+      <c r="A95" s="29" t="str">
+        <f>'Hoja 1'!B95</f>
+        <v/>
+      </c>
+      <c r="B95" s="29" t="str">
+        <f>'Hoja 1'!C95</f>
+        <v/>
+      </c>
+      <c r="C95" s="29" t="str">
+        <f>'Hoja 1'!D95</f>
+        <v/>
+      </c>
+      <c r="D95" s="29" t="str">
+        <f>"+56"&amp;'Hoja 1'!F95</f>
+        <v>+56</v>
+      </c>
+      <c r="E95" s="29" t="str">
+        <f>'Hoja 1'!E95</f>
+        <v/>
+      </c>
+      <c r="F95" s="29" t="str">
+        <f>'Hoja 1'!I95</f>
+        <v/>
+      </c>
       <c r="G95" s="22" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="96">
+      <c r="A96" s="29" t="str">
+        <f>'Hoja 1'!B96</f>
+        <v/>
+      </c>
+      <c r="B96" s="29" t="str">
+        <f>'Hoja 1'!C96</f>
+        <v/>
+      </c>
+      <c r="C96" s="29" t="str">
+        <f>'Hoja 1'!D96</f>
+        <v/>
+      </c>
+      <c r="D96" s="29" t="str">
+        <f>"+56"&amp;'Hoja 1'!F96</f>
+        <v>+56</v>
+      </c>
+      <c r="E96" s="29" t="str">
+        <f>'Hoja 1'!E96</f>
+        <v/>
+      </c>
+      <c r="F96" s="29" t="str">
+        <f>'Hoja 1'!I96</f>
+        <v/>
+      </c>
       <c r="G96" s="22" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="97">
+      <c r="A97" s="29" t="str">
+        <f>'Hoja 1'!B97</f>
+        <v/>
+      </c>
+      <c r="B97" s="29" t="str">
+        <f>'Hoja 1'!C97</f>
+        <v/>
+      </c>
+      <c r="C97" s="29" t="str">
+        <f>'Hoja 1'!D97</f>
+        <v/>
+      </c>
+      <c r="D97" s="29" t="str">
+        <f>"+56"&amp;'Hoja 1'!F97</f>
+        <v>+56</v>
+      </c>
+      <c r="E97" s="29" t="str">
+        <f>'Hoja 1'!E97</f>
+        <v/>
+      </c>
+      <c r="F97" s="29" t="str">
+        <f>'Hoja 1'!I97</f>
+        <v/>
+      </c>
       <c r="G97" s="22" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="98">
+      <c r="A98" s="29" t="str">
+        <f>'Hoja 1'!B98</f>
+        <v/>
+      </c>
+      <c r="B98" s="29" t="str">
+        <f>'Hoja 1'!C98</f>
+        <v/>
+      </c>
+      <c r="C98" s="29" t="str">
+        <f>'Hoja 1'!D98</f>
+        <v/>
+      </c>
+      <c r="D98" s="29" t="str">
+        <f>"+56"&amp;'Hoja 1'!F98</f>
+        <v>+56</v>
+      </c>
+      <c r="E98" s="29" t="str">
+        <f>'Hoja 1'!E98</f>
+        <v/>
+      </c>
+      <c r="F98" s="29" t="str">
+        <f>'Hoja 1'!I98</f>
+        <v/>
+      </c>
       <c r="G98" s="22" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="99">
+      <c r="A99" s="29" t="str">
+        <f>'Hoja 1'!B99</f>
+        <v/>
+      </c>
+      <c r="B99" s="29" t="str">
+        <f>'Hoja 1'!C99</f>
+        <v/>
+      </c>
+      <c r="C99" s="29" t="str">
+        <f>'Hoja 1'!D99</f>
+        <v/>
+      </c>
+      <c r="D99" s="29" t="str">
+        <f>"+56"&amp;'Hoja 1'!F99</f>
+        <v>+56</v>
+      </c>
+      <c r="E99" s="29" t="str">
+        <f>'Hoja 1'!E99</f>
+        <v/>
+      </c>
+      <c r="F99" s="29" t="str">
+        <f>'Hoja 1'!I99</f>
+        <v/>
+      </c>
       <c r="G99" s="22" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="100">
+      <c r="A100" s="29" t="str">
+        <f>'Hoja 1'!B100</f>
+        <v/>
+      </c>
+      <c r="B100" s="29" t="str">
+        <f>'Hoja 1'!C100</f>
+        <v/>
+      </c>
+      <c r="C100" s="29" t="str">
+        <f>'Hoja 1'!D100</f>
+        <v/>
+      </c>
+      <c r="D100" s="29" t="str">
+        <f>"+56"&amp;'Hoja 1'!F100</f>
+        <v>+56</v>
+      </c>
+      <c r="E100" s="29" t="str">
+        <f>'Hoja 1'!E100</f>
+        <v/>
+      </c>
+      <c r="F100" s="29" t="str">
+        <f>'Hoja 1'!I100</f>
+        <v/>
+      </c>
       <c r="G100" s="22" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="101">
+      <c r="A101" s="29" t="str">
+        <f>'Hoja 1'!B101</f>
+        <v/>
+      </c>
+      <c r="B101" s="29" t="str">
+        <f>'Hoja 1'!C101</f>
+        <v/>
+      </c>
+      <c r="C101" s="29" t="str">
+        <f>'Hoja 1'!D101</f>
+        <v/>
+      </c>
+      <c r="D101" s="29" t="str">
+        <f>"+56"&amp;'Hoja 1'!F101</f>
+        <v>+56</v>
+      </c>
+      <c r="E101" s="29" t="str">
+        <f>'Hoja 1'!E101</f>
+        <v/>
+      </c>
+      <c r="F101" s="29" t="str">
+        <f>'Hoja 1'!I101</f>
+        <v/>
+      </c>
       <c r="G101" s="22" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="102">
+      <c r="A102" s="29" t="str">
+        <f>'Hoja 1'!B102</f>
+        <v/>
+      </c>
+      <c r="B102" s="29" t="str">
+        <f>'Hoja 1'!C102</f>
+        <v/>
+      </c>
+      <c r="C102" s="29" t="str">
+        <f>'Hoja 1'!D102</f>
+        <v/>
+      </c>
+      <c r="D102" s="29" t="str">
+        <f>"+56"&amp;'Hoja 1'!F102</f>
+        <v>+56</v>
+      </c>
+      <c r="E102" s="29" t="str">
+        <f>'Hoja 1'!E102</f>
+        <v/>
+      </c>
+      <c r="F102" s="29" t="str">
+        <f>'Hoja 1'!I102</f>
+        <v/>
+      </c>
       <c r="G102" s="22" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="103">
+      <c r="A103" s="29" t="str">
+        <f>'Hoja 1'!B103</f>
+        <v/>
+      </c>
+      <c r="B103" s="29" t="str">
+        <f>'Hoja 1'!C103</f>
+        <v/>
+      </c>
+      <c r="C103" s="29" t="str">
+        <f>'Hoja 1'!D103</f>
+        <v/>
+      </c>
+      <c r="D103" s="29" t="str">
+        <f>"+56"&amp;'Hoja 1'!F103</f>
+        <v>+56</v>
+      </c>
+      <c r="E103" s="29" t="str">
+        <f>'Hoja 1'!E103</f>
+        <v/>
+      </c>
+      <c r="F103" s="29" t="str">
+        <f>'Hoja 1'!I103</f>
+        <v/>
+      </c>
       <c r="G103" s="22" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="104">
+      <c r="A104" s="29" t="str">
+        <f>'Hoja 1'!B104</f>
+        <v/>
+      </c>
+      <c r="B104" s="29" t="str">
+        <f>'Hoja 1'!C104</f>
+        <v/>
+      </c>
+      <c r="C104" s="29" t="str">
+        <f>'Hoja 1'!D104</f>
+        <v/>
+      </c>
+      <c r="D104" s="29" t="str">
+        <f>"+56"&amp;'Hoja 1'!F104</f>
+        <v>+56</v>
+      </c>
+      <c r="E104" s="29" t="str">
+        <f>'Hoja 1'!E104</f>
+        <v/>
+      </c>
+      <c r="F104" s="29" t="str">
+        <f>'Hoja 1'!I104</f>
+        <v/>
+      </c>
       <c r="G104" s="22" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="105">
+      <c r="A105" s="29" t="str">
+        <f>'Hoja 1'!B105</f>
+        <v/>
+      </c>
+      <c r="B105" s="29" t="str">
+        <f>'Hoja 1'!C105</f>
+        <v/>
+      </c>
+      <c r="C105" s="29" t="str">
+        <f>'Hoja 1'!D105</f>
+        <v/>
+      </c>
+      <c r="D105" s="29" t="str">
+        <f>"+56"&amp;'Hoja 1'!F105</f>
+        <v>+56</v>
+      </c>
+      <c r="E105" s="29" t="str">
+        <f>'Hoja 1'!E105</f>
+        <v/>
+      </c>
+      <c r="F105" s="29" t="str">
+        <f>'Hoja 1'!I105</f>
+        <v/>
+      </c>
       <c r="G105" s="22" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="106">
+      <c r="A106" s="29" t="str">
+        <f>'Hoja 1'!B106</f>
+        <v/>
+      </c>
+      <c r="B106" s="29" t="str">
+        <f>'Hoja 1'!C106</f>
+        <v/>
+      </c>
+      <c r="C106" s="29" t="str">
+        <f>'Hoja 1'!D106</f>
+        <v/>
+      </c>
+      <c r="D106" s="29" t="str">
+        <f>"+56"&amp;'Hoja 1'!F106</f>
+        <v>+56</v>
+      </c>
+      <c r="E106" s="29" t="str">
+        <f>'Hoja 1'!E106</f>
+        <v/>
+      </c>
+      <c r="F106" s="29" t="str">
+        <f>'Hoja 1'!I106</f>
+        <v/>
+      </c>
       <c r="G106" s="22" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="107">
+      <c r="A107" s="29" t="str">
+        <f>'Hoja 1'!B107</f>
+        <v/>
+      </c>
+      <c r="B107" s="29" t="str">
+        <f>'Hoja 1'!C107</f>
+        <v/>
+      </c>
+      <c r="C107" s="29" t="str">
+        <f>'Hoja 1'!D107</f>
+        <v/>
+      </c>
+      <c r="D107" s="29" t="str">
+        <f>"+56"&amp;'Hoja 1'!F107</f>
+        <v>+56</v>
+      </c>
+      <c r="E107" s="29" t="str">
+        <f>'Hoja 1'!E107</f>
+        <v/>
+      </c>
+      <c r="F107" s="29" t="str">
+        <f>'Hoja 1'!I107</f>
+        <v/>
+      </c>
       <c r="G107" s="22" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="108">
+      <c r="A108" s="29" t="str">
+        <f>'Hoja 1'!B108</f>
+        <v/>
+      </c>
+      <c r="B108" s="29" t="str">
+        <f>'Hoja 1'!C108</f>
+        <v/>
+      </c>
+      <c r="C108" s="29" t="str">
+        <f>'Hoja 1'!D108</f>
+        <v/>
+      </c>
+      <c r="D108" s="29" t="str">
+        <f>"+56"&amp;'Hoja 1'!F108</f>
+        <v>+56</v>
+      </c>
+      <c r="E108" s="29" t="str">
+        <f>'Hoja 1'!E108</f>
+        <v/>
+      </c>
+      <c r="F108" s="29" t="str">
+        <f>'Hoja 1'!I108</f>
+        <v/>
+      </c>
       <c r="G108" s="22" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="109">
+      <c r="A109" s="29" t="str">
+        <f>'Hoja 1'!B109</f>
+        <v/>
+      </c>
+      <c r="B109" s="29" t="str">
+        <f>'Hoja 1'!C109</f>
+        <v/>
+      </c>
+      <c r="C109" s="29" t="str">
+        <f>'Hoja 1'!D109</f>
+        <v/>
+      </c>
+      <c r="D109" s="29" t="str">
+        <f>"+56"&amp;'Hoja 1'!F109</f>
+        <v>+56</v>
+      </c>
+      <c r="E109" s="29" t="str">
+        <f>'Hoja 1'!E109</f>
+        <v/>
+      </c>
+      <c r="F109" s="29" t="str">
+        <f>'Hoja 1'!I109</f>
+        <v/>
+      </c>
       <c r="G109" s="22" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="110">
+      <c r="A110" s="29" t="str">
+        <f>'Hoja 1'!B110</f>
+        <v/>
+      </c>
+      <c r="B110" s="29" t="str">
+        <f>'Hoja 1'!C110</f>
+        <v/>
+      </c>
+      <c r="C110" s="29" t="str">
+        <f>'Hoja 1'!D110</f>
+        <v/>
+      </c>
+      <c r="D110" s="29" t="str">
+        <f>"+56"&amp;'Hoja 1'!F110</f>
+        <v>+56</v>
+      </c>
+      <c r="E110" s="29" t="str">
+        <f>'Hoja 1'!E110</f>
+        <v/>
+      </c>
+      <c r="F110" s="29" t="str">
+        <f>'Hoja 1'!I110</f>
+        <v/>
+      </c>
       <c r="G110" s="22" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="111">
+      <c r="A111" s="29" t="str">
+        <f>'Hoja 1'!B111</f>
+        <v/>
+      </c>
+      <c r="B111" s="29" t="str">
+        <f>'Hoja 1'!C111</f>
+        <v/>
+      </c>
+      <c r="C111" s="29" t="str">
+        <f>'Hoja 1'!D111</f>
+        <v/>
+      </c>
+      <c r="D111" s="29" t="str">
+        <f>"+56"&amp;'Hoja 1'!F111</f>
+        <v>+56</v>
+      </c>
+      <c r="E111" s="29" t="str">
+        <f>'Hoja 1'!E111</f>
+        <v/>
+      </c>
+      <c r="F111" s="29" t="str">
+        <f>'Hoja 1'!I111</f>
+        <v/>
+      </c>
       <c r="G111" s="22" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="112">
+      <c r="A112" s="29" t="str">
+        <f>'Hoja 1'!B112</f>
+        <v/>
+      </c>
+      <c r="B112" s="29" t="str">
+        <f>'Hoja 1'!C112</f>
+        <v/>
+      </c>
+      <c r="C112" s="29" t="str">
+        <f>'Hoja 1'!D112</f>
+        <v/>
+      </c>
+      <c r="D112" s="29" t="str">
+        <f>"+56"&amp;'Hoja 1'!F112</f>
+        <v>+56</v>
+      </c>
+      <c r="E112" s="29" t="str">
+        <f>'Hoja 1'!E112</f>
+        <v/>
+      </c>
+      <c r="F112" s="29" t="str">
+        <f>'Hoja 1'!I112</f>
+        <v/>
+      </c>
       <c r="G112" s="22" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="113">
+      <c r="A113" s="29" t="str">
+        <f>'Hoja 1'!B113</f>
+        <v/>
+      </c>
+      <c r="B113" s="29" t="str">
+        <f>'Hoja 1'!C113</f>
+        <v/>
+      </c>
+      <c r="C113" s="29" t="str">
+        <f>'Hoja 1'!D113</f>
+        <v/>
+      </c>
+      <c r="D113" s="29" t="str">
+        <f>"+56"&amp;'Hoja 1'!F113</f>
+        <v>+56</v>
+      </c>
+      <c r="E113" s="29" t="str">
+        <f>'Hoja 1'!E113</f>
+        <v/>
+      </c>
+      <c r="F113" s="29" t="str">
+        <f>'Hoja 1'!I113</f>
+        <v/>
+      </c>
       <c r="G113" s="22" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="114">
+      <c r="A114" s="29" t="str">
+        <f>'Hoja 1'!B114</f>
+        <v/>
+      </c>
+      <c r="B114" s="29" t="str">
+        <f>'Hoja 1'!C114</f>
+        <v/>
+      </c>
+      <c r="C114" s="29" t="str">
+        <f>'Hoja 1'!D114</f>
+        <v/>
+      </c>
+      <c r="D114" s="29" t="str">
+        <f>"+56"&amp;'Hoja 1'!F114</f>
+        <v>+56</v>
+      </c>
+      <c r="E114" s="29" t="str">
+        <f>'Hoja 1'!E114</f>
+        <v/>
+      </c>
+      <c r="F114" s="29" t="str">
+        <f>'Hoja 1'!I114</f>
+        <v/>
+      </c>
       <c r="G114" s="22" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="115">
+      <c r="A115" s="29" t="str">
+        <f>'Hoja 1'!B115</f>
+        <v/>
+      </c>
+      <c r="B115" s="29" t="str">
+        <f>'Hoja 1'!C115</f>
+        <v/>
+      </c>
+      <c r="C115" s="29" t="str">
+        <f>'Hoja 1'!D115</f>
+        <v/>
+      </c>
+      <c r="D115" s="29" t="str">
+        <f>"+56"&amp;'Hoja 1'!F115</f>
+        <v>+56</v>
+      </c>
+      <c r="E115" s="29" t="str">
+        <f>'Hoja 1'!E115</f>
+        <v/>
+      </c>
+      <c r="F115" s="29" t="str">
+        <f>'Hoja 1'!I115</f>
+        <v/>
+      </c>
       <c r="G115" s="22" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="116">
+      <c r="A116" s="29" t="str">
+        <f>'Hoja 1'!B116</f>
+        <v/>
+      </c>
+      <c r="B116" s="29" t="str">
+        <f>'Hoja 1'!C116</f>
+        <v/>
+      </c>
+      <c r="C116" s="29" t="str">
+        <f>'Hoja 1'!D116</f>
+        <v/>
+      </c>
+      <c r="D116" s="29" t="str">
+        <f>"+56"&amp;'Hoja 1'!F116</f>
+        <v>+56</v>
+      </c>
+      <c r="E116" s="29" t="str">
+        <f>'Hoja 1'!E116</f>
+        <v/>
+      </c>
+      <c r="F116" s="29" t="str">
+        <f>'Hoja 1'!I116</f>
+        <v/>
+      </c>
       <c r="G116" s="22" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="117">
+      <c r="A117" s="29" t="str">
+        <f>'Hoja 1'!B117</f>
+        <v/>
+      </c>
+      <c r="B117" s="29" t="str">
+        <f>'Hoja 1'!C117</f>
+        <v/>
+      </c>
+      <c r="C117" s="29" t="str">
+        <f>'Hoja 1'!D117</f>
+        <v/>
+      </c>
+      <c r="D117" s="29" t="str">
+        <f>"+56"&amp;'Hoja 1'!F117</f>
+        <v>+56</v>
+      </c>
+      <c r="E117" s="29" t="str">
+        <f>'Hoja 1'!E117</f>
+        <v/>
+      </c>
+      <c r="F117" s="29" t="str">
+        <f>'Hoja 1'!I117</f>
+        <v/>
+      </c>
       <c r="G117" s="22" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="118">
+      <c r="A118" s="29" t="str">
+        <f>'Hoja 1'!B118</f>
+        <v/>
+      </c>
+      <c r="B118" s="29" t="str">
+        <f>'Hoja 1'!C118</f>
+        <v/>
+      </c>
+      <c r="C118" s="29" t="str">
+        <f>'Hoja 1'!D118</f>
+        <v/>
+      </c>
+      <c r="D118" s="29" t="str">
+        <f>"+56"&amp;'Hoja 1'!F118</f>
+        <v>+56</v>
+      </c>
+      <c r="E118" s="29" t="str">
+        <f>'Hoja 1'!E118</f>
+        <v/>
+      </c>
+      <c r="F118" s="29" t="str">
+        <f>'Hoja 1'!I118</f>
+        <v/>
+      </c>
       <c r="G118" s="22" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="119">
+      <c r="A119" s="29" t="str">
+        <f>'Hoja 1'!B119</f>
+        <v/>
+      </c>
+      <c r="B119" s="29" t="str">
+        <f>'Hoja 1'!C119</f>
+        <v/>
+      </c>
+      <c r="C119" s="29" t="str">
+        <f>'Hoja 1'!D119</f>
+        <v/>
+      </c>
+      <c r="D119" s="29" t="str">
+        <f>"+56"&amp;'Hoja 1'!F119</f>
+        <v>+56</v>
+      </c>
+      <c r="E119" s="29" t="str">
+        <f>'Hoja 1'!E119</f>
+        <v/>
+      </c>
+      <c r="F119" s="29" t="str">
+        <f>'Hoja 1'!I119</f>
+        <v/>
+      </c>
       <c r="G119" s="22" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="120">
+      <c r="A120" s="29" t="str">
+        <f>'Hoja 1'!B120</f>
+        <v/>
+      </c>
+      <c r="B120" s="29" t="str">
+        <f>'Hoja 1'!C120</f>
+        <v/>
+      </c>
+      <c r="C120" s="29" t="str">
+        <f>'Hoja 1'!D120</f>
+        <v/>
+      </c>
+      <c r="D120" s="29" t="str">
+        <f>"+56"&amp;'Hoja 1'!F120</f>
+        <v>+56</v>
+      </c>
+      <c r="E120" s="29" t="str">
+        <f>'Hoja 1'!E120</f>
+        <v/>
+      </c>
+      <c r="F120" s="29" t="str">
+        <f>'Hoja 1'!I120</f>
+        <v/>
+      </c>
       <c r="G120" s="22" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="121">
+      <c r="A121" s="29" t="str">
+        <f>'Hoja 1'!B121</f>
+        <v/>
+      </c>
+      <c r="B121" s="29" t="str">
+        <f>'Hoja 1'!C121</f>
+        <v/>
+      </c>
+      <c r="C121" s="29" t="str">
+        <f>'Hoja 1'!D121</f>
+        <v/>
+      </c>
+      <c r="D121" s="29" t="str">
+        <f>"+56"&amp;'Hoja 1'!F121</f>
+        <v>+56</v>
+      </c>
+      <c r="E121" s="29" t="str">
+        <f>'Hoja 1'!E121</f>
+        <v/>
+      </c>
+      <c r="F121" s="29" t="str">
+        <f>'Hoja 1'!I121</f>
+        <v/>
+      </c>
       <c r="G121" s="22" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="122">
+      <c r="A122" s="29" t="str">
+        <f>'Hoja 1'!B122</f>
+        <v/>
+      </c>
+      <c r="B122" s="29" t="str">
+        <f>'Hoja 1'!C122</f>
+        <v/>
+      </c>
+      <c r="C122" s="29" t="str">
+        <f>'Hoja 1'!D122</f>
+        <v/>
+      </c>
+      <c r="D122" s="29" t="str">
+        <f>"+56"&amp;'Hoja 1'!F122</f>
+        <v>+56</v>
+      </c>
+      <c r="E122" s="29" t="str">
+        <f>'Hoja 1'!E122</f>
+        <v/>
+      </c>
+      <c r="F122" s="29" t="str">
+        <f>'Hoja 1'!I122</f>
+        <v/>
+      </c>
       <c r="G122" s="22" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="123">
+      <c r="A123" s="29" t="str">
+        <f>'Hoja 1'!B123</f>
+        <v/>
+      </c>
+      <c r="B123" s="29" t="str">
+        <f>'Hoja 1'!C123</f>
+        <v/>
+      </c>
+      <c r="C123" s="29" t="str">
+        <f>'Hoja 1'!D123</f>
+        <v/>
+      </c>
+      <c r="D123" s="29" t="str">
+        <f>"+56"&amp;'Hoja 1'!F123</f>
+        <v>+56</v>
+      </c>
+      <c r="E123" s="29" t="str">
+        <f>'Hoja 1'!E123</f>
+        <v/>
+      </c>
+      <c r="F123" s="29" t="str">
+        <f>'Hoja 1'!I123</f>
+        <v/>
+      </c>
       <c r="G123" s="22" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="124">
+      <c r="A124" s="29" t="str">
+        <f>'Hoja 1'!B124</f>
+        <v/>
+      </c>
+      <c r="B124" s="29" t="str">
+        <f>'Hoja 1'!C124</f>
+        <v/>
+      </c>
+      <c r="C124" s="29" t="str">
+        <f>'Hoja 1'!D124</f>
+        <v/>
+      </c>
+      <c r="D124" s="29" t="str">
+        <f>"+56"&amp;'Hoja 1'!F124</f>
+        <v>+56</v>
+      </c>
+      <c r="E124" s="29" t="str">
+        <f>'Hoja 1'!E124</f>
+        <v/>
+      </c>
+      <c r="F124" s="29" t="str">
+        <f>'Hoja 1'!I124</f>
+        <v/>
+      </c>
       <c r="G124" s="22" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="125">
+      <c r="A125" s="29" t="str">
+        <f>'Hoja 1'!B125</f>
+        <v/>
+      </c>
+      <c r="B125" s="29" t="str">
+        <f>'Hoja 1'!C125</f>
+        <v/>
+      </c>
+      <c r="C125" s="29" t="str">
+        <f>'Hoja 1'!D125</f>
+        <v/>
+      </c>
+      <c r="D125" s="29" t="str">
+        <f>"+56"&amp;'Hoja 1'!F125</f>
+        <v>+56</v>
+      </c>
+      <c r="E125" s="29" t="str">
+        <f>'Hoja 1'!E125</f>
+        <v/>
+      </c>
+      <c r="F125" s="29" t="str">
+        <f>'Hoja 1'!I125</f>
+        <v/>
+      </c>
       <c r="G125" s="22" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="126">
+      <c r="A126" s="29" t="str">
+        <f>'Hoja 1'!B126</f>
+        <v/>
+      </c>
+      <c r="B126" s="29" t="str">
+        <f>'Hoja 1'!C126</f>
+        <v/>
+      </c>
+      <c r="C126" s="29" t="str">
+        <f>'Hoja 1'!D126</f>
+        <v/>
+      </c>
+      <c r="D126" s="29" t="str">
+        <f>"+56"&amp;'Hoja 1'!F126</f>
+        <v>+56</v>
+      </c>
+      <c r="E126" s="29" t="str">
+        <f>'Hoja 1'!E126</f>
+        <v/>
+      </c>
+      <c r="F126" s="29" t="str">
+        <f>'Hoja 1'!I126</f>
+        <v/>
+      </c>
       <c r="G126" s="22" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="127">
+      <c r="A127" s="29" t="str">
+        <f>'Hoja 1'!B127</f>
+        <v/>
+      </c>
+      <c r="B127" s="29" t="str">
+        <f>'Hoja 1'!C127</f>
+        <v/>
+      </c>
+      <c r="C127" s="29" t="str">
+        <f>'Hoja 1'!D127</f>
+        <v/>
+      </c>
+      <c r="D127" s="29" t="str">
+        <f>"+56"&amp;'Hoja 1'!F127</f>
+        <v>+56</v>
+      </c>
+      <c r="E127" s="29" t="str">
+        <f>'Hoja 1'!E127</f>
+        <v/>
+      </c>
+      <c r="F127" s="29" t="str">
+        <f>'Hoja 1'!I127</f>
+        <v/>
+      </c>
       <c r="G127" s="22" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="128">
+      <c r="A128" s="29" t="str">
+        <f>'Hoja 1'!B128</f>
+        <v/>
+      </c>
+      <c r="B128" s="29" t="str">
+        <f>'Hoja 1'!C128</f>
+        <v/>
+      </c>
+      <c r="C128" s="29" t="str">
+        <f>'Hoja 1'!D128</f>
+        <v/>
+      </c>
+      <c r="D128" s="29" t="str">
+        <f>"+56"&amp;'Hoja 1'!F128</f>
+        <v>+56</v>
+      </c>
+      <c r="E128" s="29" t="str">
+        <f>'Hoja 1'!E128</f>
+        <v/>
+      </c>
+      <c r="F128" s="29" t="str">
+        <f>'Hoja 1'!I128</f>
+        <v/>
+      </c>
       <c r="G128" s="22" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="129">
+      <c r="A129" s="29" t="str">
+        <f>'Hoja 1'!B129</f>
+        <v/>
+      </c>
+      <c r="B129" s="29" t="str">
+        <f>'Hoja 1'!C129</f>
+        <v/>
+      </c>
+      <c r="C129" s="29" t="str">
+        <f>'Hoja 1'!D129</f>
+        <v/>
+      </c>
+      <c r="D129" s="29" t="str">
+        <f>"+56"&amp;'Hoja 1'!F129</f>
+        <v>+56</v>
+      </c>
+      <c r="E129" s="29" t="str">
+        <f>'Hoja 1'!E129</f>
+        <v/>
+      </c>
+      <c r="F129" s="29" t="str">
+        <f>'Hoja 1'!I129</f>
+        <v/>
+      </c>
       <c r="G129" s="22" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="130">
+      <c r="A130" s="29" t="str">
+        <f>'Hoja 1'!B130</f>
+        <v/>
+      </c>
+      <c r="B130" s="29" t="str">
+        <f>'Hoja 1'!C130</f>
+        <v/>
+      </c>
+      <c r="C130" s="29" t="str">
+        <f>'Hoja 1'!D130</f>
+        <v/>
+      </c>
+      <c r="D130" s="29" t="str">
+        <f>"+56"&amp;'Hoja 1'!F130</f>
+        <v>+56</v>
+      </c>
+      <c r="E130" s="29" t="str">
+        <f>'Hoja 1'!E130</f>
+        <v/>
+      </c>
+      <c r="F130" s="29" t="str">
+        <f>'Hoja 1'!I130</f>
+        <v/>
+      </c>
       <c r="G130" s="22" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="29" t="str">
+        <f>'Hoja 1'!B131</f>
+        <v/>
+      </c>
+      <c r="B131" s="29" t="str">
+        <f>'Hoja 1'!C131</f>
+        <v/>
+      </c>
+      <c r="C131" s="29" t="str">
+        <f>'Hoja 1'!D131</f>
+        <v/>
+      </c>
+      <c r="D131" s="29" t="str">
+        <f>"+56"&amp;'Hoja 1'!F131</f>
+        <v>+56</v>
+      </c>
+      <c r="E131" s="29" t="str">
+        <f>'Hoja 1'!E131</f>
+        <v/>
+      </c>
+      <c r="F131" s="29" t="str">
+        <f>'Hoja 1'!I131</f>
+        <v/>
+      </c>
+      <c r="G131" s="22" t="s">
         <v>334</v>
       </c>
     </row>

--- a/help-script/inputs/24_09_24.xlsx
+++ b/help-script/inputs/24_09_24.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="365">
   <si>
     <t xml:space="preserve">email </t>
   </si>
@@ -1018,6 +1018,90 @@
     <t>9 9494 9321</t>
   </si>
   <si>
+    <t>rfjoglar@gmail.com</t>
+  </si>
+  <si>
+    <t>Joglar</t>
+  </si>
+  <si>
+    <t>9 9218 8925</t>
+  </si>
+  <si>
+    <t>lhenriquezr@gmail.com</t>
+  </si>
+  <si>
+    <t>Henríquez</t>
+  </si>
+  <si>
+    <t>9 9079 5633</t>
+  </si>
+  <si>
+    <t>makeca@gmail.com</t>
+  </si>
+  <si>
+    <t>Angélica</t>
+  </si>
+  <si>
+    <t>Lozano</t>
+  </si>
+  <si>
+    <t>9 9309 5212</t>
+  </si>
+  <si>
+    <t>[{"name":"María Angélica", "lastName":"Herreros"}]</t>
+  </si>
+  <si>
+    <t>joseirarrazaval92@gmail.com</t>
+  </si>
+  <si>
+    <t>Josefina</t>
+  </si>
+  <si>
+    <t>Irarrázaval</t>
+  </si>
+  <si>
+    <t>9 8852 2567</t>
+  </si>
+  <si>
+    <t>[{"name":"Cristian", "lastName":"Irarrázaval"},{"name":"Anita", "lastName":"Andrews"},{"name":"María Angélica", "lastName":"Andrews"}]</t>
+  </si>
+  <si>
+    <t>null@null.com</t>
+  </si>
+  <si>
+    <t>Agustín</t>
+  </si>
+  <si>
+    <t>Rodríguez</t>
+  </si>
+  <si>
+    <t>9 8829 0111</t>
+  </si>
+  <si>
+    <t>perezcotapos@uc.cl</t>
+  </si>
+  <si>
+    <t>Pérez-Cotapos González</t>
+  </si>
+  <si>
+    <t>9 5730 5326</t>
+  </si>
+  <si>
+    <t>[{"name":"Carolina", "lastName":"Ugarte Contreras","email":"cfugarte@uc.cl"}]</t>
+  </si>
+  <si>
+    <t>jrodvar@gmail.com</t>
+  </si>
+  <si>
+    <t>Joaquín</t>
+  </si>
+  <si>
+    <t>Rodriguez</t>
+  </si>
+  <si>
+    <t>9 8288 6357</t>
+  </si>
+  <si>
     <t>email</t>
   </si>
   <si>
@@ -1034,6 +1118,9 @@
   </si>
   <si>
     <t>subscribedEventsId</t>
+  </si>
+  <si>
+    <t>isCheckinActive</t>
   </si>
   <si>
     <t>["4Ms88Hw9i3okcTHI7AV6"]</t>
@@ -1488,7 +1575,7 @@
     <row r="1">
       <c r="A1" s="1">
         <f>SUMIF(is_confirmed,TRUE,number_of_people)</f>
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1558,7 +1645,7 @@
     </row>
     <row r="3">
       <c r="A3" s="7">
-        <f t="shared" ref="A3:A71" si="1">A2+1</f>
+        <f t="shared" ref="A3:A78" si="1">A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -3903,108 +3990,225 @@
       <c r="K71" s="14"/>
     </row>
     <row r="72">
-      <c r="A72" s="14"/>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
+      <c r="A72" s="7">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="E72" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>330</v>
+      </c>
       <c r="G72" s="8" t="s">
         <v>14</v>
       </c>
       <c r="H72" s="14"/>
       <c r="I72" s="13"/>
-      <c r="J72" s="7"/>
+      <c r="J72" s="7" t="b">
+        <v>1</v>
+      </c>
       <c r="K72" s="14"/>
     </row>
     <row r="73">
-      <c r="A73" s="14"/>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
+      <c r="A73" s="7">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="E73" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>333</v>
+      </c>
       <c r="G73" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H73" s="14"/>
+      <c r="H73" s="20" t="b">
+        <v>1</v>
+      </c>
       <c r="I73" s="13"/>
-      <c r="J73" s="25"/>
+      <c r="J73" s="7" t="b">
+        <v>1</v>
+      </c>
       <c r="K73" s="14"/>
     </row>
     <row r="74">
-      <c r="A74" s="14"/>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
+      <c r="A74" s="7">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="E74" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>337</v>
+      </c>
       <c r="G74" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H74" s="14"/>
-      <c r="I74" s="13"/>
-      <c r="J74" s="25"/>
+      <c r="H74" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I74" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="J74" s="7" t="b">
+        <v>1</v>
+      </c>
       <c r="K74" s="14"/>
     </row>
     <row r="75">
-      <c r="A75" s="14"/>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
+      <c r="A75" s="7">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="E75" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>342</v>
+      </c>
       <c r="G75" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H75" s="14"/>
-      <c r="I75" s="13"/>
-      <c r="J75" s="25"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="J75" s="7" t="b">
+        <v>1</v>
+      </c>
       <c r="K75" s="14"/>
     </row>
     <row r="76">
-      <c r="A76" s="14"/>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
+      <c r="A76" s="7">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="B76" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="E76" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>347</v>
+      </c>
       <c r="G76" s="8" t="s">
         <v>14</v>
       </c>
       <c r="H76" s="14"/>
       <c r="I76" s="13"/>
-      <c r="J76" s="25"/>
+      <c r="J76" s="7" t="b">
+        <v>1</v>
+      </c>
       <c r="K76" s="14"/>
     </row>
     <row r="77">
-      <c r="A77" s="14"/>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
+      <c r="A77" s="7">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E77" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>350</v>
+      </c>
       <c r="G77" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H77" s="14"/>
-      <c r="I77" s="13"/>
-      <c r="J77" s="25"/>
+      <c r="H77" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I77" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="J77" s="7" t="b">
+        <v>1</v>
+      </c>
       <c r="K77" s="14"/>
     </row>
     <row r="78">
-      <c r="A78" s="14"/>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
+      <c r="A78" s="7">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="E78" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>355</v>
+      </c>
       <c r="G78" s="8" t="s">
         <v>14</v>
       </c>
       <c r="H78" s="14"/>
       <c r="I78" s="13"/>
-      <c r="J78" s="25"/>
+      <c r="J78" s="7" t="b">
+        <v>1</v>
+      </c>
       <c r="K78" s="14"/>
     </row>
     <row r="79">
@@ -4018,7 +4222,7 @@
         <v>14</v>
       </c>
       <c r="H79" s="14"/>
-      <c r="I79" s="13"/>
+      <c r="I79" s="21"/>
       <c r="J79" s="25"/>
       <c r="K79" s="14"/>
     </row>
@@ -8490,25 +8694,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="22" t="s">
-        <v>328</v>
+        <v>356</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>329</v>
+        <v>357</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>331</v>
+        <v>359</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>332</v>
+        <v>360</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>333</v>
+        <v>361</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="2">
@@ -8537,7 +8744,11 @@
         <v>[{"name":"Claudio","lastName":"Alvarado","email":"calvarado@ieschile.cl"}]</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H2" s="29" t="b">
+        <f t="shared" ref="H2:H134" si="1">FALSE()</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -8566,7 +8777,11 @@
         <v/>
       </c>
       <c r="G3" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H3" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -8595,7 +8810,11 @@
         <v>[{"name": "Francisco", "lastName": "Matte"}]</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H4" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -8624,7 +8843,11 @@
         <v/>
       </c>
       <c r="G5" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H5" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -8653,7 +8876,11 @@
         <v/>
       </c>
       <c r="G6" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H6" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -8682,7 +8909,11 @@
         <v/>
       </c>
       <c r="G7" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H7" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -8711,7 +8942,11 @@
         <v/>
       </c>
       <c r="G8" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H8" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -8740,7 +8975,11 @@
         <v/>
       </c>
       <c r="G9" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H9" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -8769,7 +9008,11 @@
         <v>[" "]</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H10" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -8798,7 +9041,11 @@
         <v>[" "]</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H11" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -8827,7 +9074,11 @@
         <v>[{"name": "Isabel", "lastName": "Gajardo Jara"}]</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H12" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -8856,7 +9107,11 @@
         <v>[{"name": "Sergio", "lastName": "Matte", "email": "Sergiomatte@hotmail.com"}]</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H13" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -8885,7 +9140,11 @@
         <v>[{"name": "Francisco", "lastName": "Soza", "email": "fsozab@gmail.com"}]</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H14" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -8914,7 +9173,11 @@
         <v>[{"name":"Fernando", "lastName":"Montes","email":"Fmontes88@gmail.com"}]</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H15" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -8943,7 +9206,11 @@
         <v>[{"name":"Cristobal", "lastName":"Ureta","email":"C.ureta.soublette@outlook.com"}]</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H16" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -8972,7 +9239,11 @@
         <v>[{"name":"Manuel", "lastName":"Tagle","email":"Mantagle@outlook.cl"}]</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H17" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -9001,7 +9272,11 @@
         <v>[{"name":"Paula", "lastName":"Matte","email":"Pmattevial@gmail.com"}]</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H18" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -9030,7 +9305,11 @@
         <v>[{"name":"Tomas", "lastName":"Gonzalez Aldunate","email":"tgonzalez@claro.cl"},{"name":"Emilia", "lastName":"Gonzalez Larrain","email":"ea.gonzalez@csuv.cl"},{"name":"Eduardo", "lastName":"Gonzalez Larrain","email":"p.gonzalez.2030@tabancura.cl"}]</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H19" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -9059,7 +9338,11 @@
         <v/>
       </c>
       <c r="G20" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H20" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -9088,7 +9371,11 @@
         <v>[{"name": "Juan Pablo", "lastName": "Cisternas Fortune", "email": "juanpcisternas@gmail.com"}]</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H21" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -9117,7 +9404,11 @@
         <v>[{"name": "Cristián", "lastName": "Harrison", "email": "cristianharrison@lchh.cl"}]</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H22" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -9146,7 +9437,11 @@
         <v>[{"name":"Barbara" ,"lastName":"Corssen", "email":"Bacorssen@hotmail.com"}]</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H23" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -9175,7 +9470,11 @@
         <v>[" "]</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H24" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -9204,7 +9503,11 @@
         <v>[{"name": "Felipe", "lastName": "Finkelstein", "email": "F.finkelstein@gmail.com"}]</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H25" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -9233,7 +9536,11 @@
         <v>[{"name": "Carolina", "lastName": "Undurraga Fernández"}]</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H26" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -9262,7 +9569,11 @@
         <v>[{"name": "Elena", "lastName": "Figueroa Navarrete", "email": "elenaderomo@gmail.com"}]</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H27" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -9291,7 +9602,11 @@
         <v>[{"name": "José Miguel", "lastName": "Delpin", "email": "jmdelpin88@gmail.com"}]</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H28" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -9320,7 +9635,11 @@
         <v/>
       </c>
       <c r="G29" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H29" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -9349,7 +9668,11 @@
         <v>[{"name":"Tomas", "lastName":"Correa"},{"name":"María Gracia", "lastName":"Correa"},{"name":"Luz", "lastName":"Lecaros"}]</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H30" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -9378,7 +9701,11 @@
         <v>[{"name":"Ignacia", "lastName":"Ortúzar Salazar"},{"name":"Alonso", "lastName":"Ortúzar Salazar"},{"name":"Tomás", "lastName":"Ortúzar Salazar"}]</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H31" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -9407,7 +9734,11 @@
         <v>[{"name": "Carolina", "lastName": "Lausen", "email": "carolinalausen@gmail.com"}]</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H32" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -9436,7 +9767,11 @@
         <v/>
       </c>
       <c r="G33" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H33" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -9465,7 +9800,11 @@
         <v>[{"name": "Matías", "lastName": "Larraín"}]</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H34" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -9494,7 +9833,11 @@
         <v>[{"name": "Andrés", "lastName": "Delucchi"}]</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H35" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -9523,7 +9866,11 @@
         <v>[{"name": "Nicolás", "lastName": "Larraín", "email": "nlarrainh@gmail.com"}]</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H36" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -9552,7 +9899,11 @@
         <v/>
       </c>
       <c r="G37" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H37" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -9581,7 +9932,11 @@
         <v/>
       </c>
       <c r="G38" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H38" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -9610,7 +9965,11 @@
         <v>[{"name": "Julio", "lastName": "Riadi", "email": "julio.riadi@gmail.com"}]</v>
       </c>
       <c r="G39" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H39" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -9639,7 +9998,11 @@
         <v/>
       </c>
       <c r="G40" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H40" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -9668,7 +10031,11 @@
         <v/>
       </c>
       <c r="G41" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H41" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -9697,7 +10064,11 @@
         <v>[{"name": "Bárbara", "lastName": "Schumacher"}, {"name": "Mathías", "lastName": "Schumacher"},{"name": "Herman", "lastName": "Schumacher", "email": "herman.schumacher@gmail.com"}]</v>
       </c>
       <c r="G42" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H42" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -9726,7 +10097,11 @@
         <v/>
       </c>
       <c r="G43" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H43" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -9755,7 +10130,11 @@
         <v/>
       </c>
       <c r="G44" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H44" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -9784,7 +10163,11 @@
         <v>[{"name": "Catalina", "lastName": "Bascuñan"}, {"name": "Carmelita", "lastName": "Venegas"}]</v>
       </c>
       <c r="G45" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H45" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -9813,7 +10196,11 @@
         <v>[{"name": "Alex", "lastName": "van Weezel", "email": " avw@uc.cl"}]</v>
       </c>
       <c r="G46" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H46" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -9842,7 +10229,11 @@
         <v>[{"name":"Ignacia", "lastName":"Seco","email":"mariasecocummins@gmail.com"},{"name":"Antonio", "lastName":"Escobar","email":"tucoescobar@yahoo.com"},{"name":"Alejandra", "lastName":"Díaz","email":"alediazcollins@gmail.coml"}]</v>
       </c>
       <c r="G47" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H47" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -9871,7 +10262,11 @@
         <v/>
       </c>
       <c r="G48" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H48" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -9900,7 +10295,11 @@
         <v>[{"name":"Juan Ignacio", "lastName":"Correa","email":"jicorrea@mi.cl"}]</v>
       </c>
       <c r="G49" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H49" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -9929,7 +10328,11 @@
         <v/>
       </c>
       <c r="G50" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H50" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -9958,7 +10361,11 @@
         <v/>
       </c>
       <c r="G51" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H51" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -9987,7 +10394,11 @@
         <v>[{"name":"María Luisa", "lastName":"Fonck","email":"trinitorrealba@gmail.com"}]</v>
       </c>
       <c r="G52" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H52" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -10016,7 +10427,11 @@
         <v>[{"name":"Jorge", "lastName":"Alvear"}]</v>
       </c>
       <c r="G53" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H53" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -10045,7 +10460,11 @@
         <v/>
       </c>
       <c r="G54" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H54" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -10074,7 +10493,11 @@
         <v>[{"name":"Alicia", "lastName":"Monckeberg Toro"}]</v>
       </c>
       <c r="G55" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H55" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -10103,7 +10526,11 @@
         <v>[{"name":"Marcel", "lastName":"Bunout Cifuentes","email":"marcel.bunout@gmail.com"},{"name":"Marie", "lastName":"Bunout Quiroga","email":"domibuqui@gmail.com"},{"name":"Laura", "lastName":"Vial Gutierrez","email":"domibuqui@gmail.com"}]</v>
       </c>
       <c r="G56" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H56" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -10132,7 +10559,11 @@
         <v>[{"name":"Andrés", "lastName":"Maturana Ovalle","email":"amaturanao@gmail.com"}]</v>
       </c>
       <c r="G57" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H57" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -10161,7 +10592,11 @@
         <v>[{"name":"Verónica", "lastName":"Basoalto","email":"vbasoalto@gmail.com"}]</v>
       </c>
       <c r="G58" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H58" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -10190,7 +10625,11 @@
         <v>pendiente</v>
       </c>
       <c r="G59" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H59" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -10219,7 +10658,11 @@
         <v>[{"name":"Edmundo", "lastName":"Silva","email":"esilva@vector.cl"}]</v>
       </c>
       <c r="G60" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H60" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -10248,7 +10691,11 @@
         <v>[{"name":"Carolina", "lastName":"García"},{"name":"Carolina", "lastName":"Stevenson"},{"name":"Luis", "lastName":"García"}]</v>
       </c>
       <c r="G61" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H61" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -10277,7 +10724,11 @@
         <v>[{"name":"Gustavo", "lastName":"Donoso"}]</v>
       </c>
       <c r="G62" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H62" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -10306,7 +10757,11 @@
         <v/>
       </c>
       <c r="G63" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H63" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -10335,7 +10790,11 @@
         <v>pendiente</v>
       </c>
       <c r="G64" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H64" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -10364,7 +10823,11 @@
         <v>pendiente</v>
       </c>
       <c r="G65" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H65" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -10393,7 +10856,11 @@
         <v/>
       </c>
       <c r="G66" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H66" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -10422,7 +10889,11 @@
         <v/>
       </c>
       <c r="G67" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H67" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -10451,7 +10922,11 @@
         <v>[{"name":"Ricardo", "lastName":"Rodriguez"},{"name":"Francisco", "lastName":"Rodriguez"]</v>
       </c>
       <c r="G68" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H68" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -10480,7 +10955,11 @@
         <v/>
       </c>
       <c r="G69" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H69" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -10509,7 +10988,11 @@
         <v>[{"name":"Gonzalo", "lastName":"Albornoz","email":"albornoz.gonzalo@gmail.com"}]</v>
       </c>
       <c r="G70" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H70" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -10538,210 +11021,242 @@
         <v/>
       </c>
       <c r="G71" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H71" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="29" t="str">
         <f>'Hoja 1'!B72</f>
-        <v/>
+        <v>rfjoglar@gmail.com</v>
       </c>
       <c r="B72" s="29" t="str">
         <f>'Hoja 1'!C72</f>
-        <v/>
+        <v>Rodrigo</v>
       </c>
       <c r="C72" s="29" t="str">
         <f>'Hoja 1'!D72</f>
-        <v/>
+        <v>Joglar</v>
       </c>
       <c r="D72" s="29" t="str">
         <f>"+56"&amp;'Hoja 1'!F72</f>
-        <v>+56</v>
-      </c>
-      <c r="E72" s="29" t="str">
+        <v>+569 9218 8925</v>
+      </c>
+      <c r="E72" s="29">
         <f>'Hoja 1'!E72</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="F72" s="29" t="str">
         <f>'Hoja 1'!I72</f>
         <v/>
       </c>
       <c r="G72" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H72" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="29" t="str">
         <f>'Hoja 1'!B73</f>
-        <v/>
+        <v>lhenriquezr@gmail.com</v>
       </c>
       <c r="B73" s="29" t="str">
         <f>'Hoja 1'!C73</f>
-        <v/>
+        <v>Loreto</v>
       </c>
       <c r="C73" s="29" t="str">
         <f>'Hoja 1'!D73</f>
-        <v/>
+        <v>Henríquez</v>
       </c>
       <c r="D73" s="29" t="str">
         <f>"+56"&amp;'Hoja 1'!F73</f>
-        <v>+56</v>
-      </c>
-      <c r="E73" s="29" t="str">
+        <v>+569 9079 5633</v>
+      </c>
+      <c r="E73" s="29">
         <f>'Hoja 1'!E73</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="F73" s="29" t="str">
         <f>'Hoja 1'!I73</f>
         <v/>
       </c>
       <c r="G73" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H73" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="29" t="str">
         <f>'Hoja 1'!B74</f>
-        <v/>
+        <v>makeca@gmail.com</v>
       </c>
       <c r="B74" s="29" t="str">
         <f>'Hoja 1'!C74</f>
-        <v/>
+        <v>Angélica</v>
       </c>
       <c r="C74" s="29" t="str">
         <f>'Hoja 1'!D74</f>
-        <v/>
+        <v>Lozano</v>
       </c>
       <c r="D74" s="29" t="str">
         <f>"+56"&amp;'Hoja 1'!F74</f>
-        <v>+56</v>
-      </c>
-      <c r="E74" s="29" t="str">
+        <v>+569 9309 5212</v>
+      </c>
+      <c r="E74" s="29">
         <f>'Hoja 1'!E74</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="F74" s="29" t="str">
         <f>'Hoja 1'!I74</f>
-        <v/>
+        <v>[{"name":"María Angélica", "lastName":"Herreros"}]</v>
       </c>
       <c r="G74" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H74" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="29" t="str">
         <f>'Hoja 1'!B75</f>
-        <v/>
+        <v>joseirarrazaval92@gmail.com</v>
       </c>
       <c r="B75" s="29" t="str">
         <f>'Hoja 1'!C75</f>
-        <v/>
+        <v>Josefina</v>
       </c>
       <c r="C75" s="29" t="str">
         <f>'Hoja 1'!D75</f>
-        <v/>
+        <v>Irarrázaval</v>
       </c>
       <c r="D75" s="29" t="str">
         <f>"+56"&amp;'Hoja 1'!F75</f>
-        <v>+56</v>
-      </c>
-      <c r="E75" s="29" t="str">
+        <v>+569 8852 2567</v>
+      </c>
+      <c r="E75" s="29">
         <f>'Hoja 1'!E75</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="F75" s="29" t="str">
         <f>'Hoja 1'!I75</f>
-        <v/>
+        <v>[{"name":"Cristian", "lastName":"Irarrázaval"},{"name":"Anita", "lastName":"Andrews"},{"name":"María Angélica", "lastName":"Andrews"}]</v>
       </c>
       <c r="G75" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H75" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="29" t="str">
         <f>'Hoja 1'!B76</f>
-        <v/>
+        <v>null@null.com</v>
       </c>
       <c r="B76" s="29" t="str">
         <f>'Hoja 1'!C76</f>
-        <v/>
+        <v>Agustín</v>
       </c>
       <c r="C76" s="29" t="str">
         <f>'Hoja 1'!D76</f>
-        <v/>
+        <v>Rodríguez</v>
       </c>
       <c r="D76" s="29" t="str">
         <f>"+56"&amp;'Hoja 1'!F76</f>
-        <v>+56</v>
-      </c>
-      <c r="E76" s="29" t="str">
+        <v>+569 8829 0111</v>
+      </c>
+      <c r="E76" s="29">
         <f>'Hoja 1'!E76</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="F76" s="29" t="str">
         <f>'Hoja 1'!I76</f>
         <v/>
       </c>
       <c r="G76" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H76" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="29" t="str">
         <f>'Hoja 1'!B77</f>
-        <v/>
+        <v>perezcotapos@uc.cl</v>
       </c>
       <c r="B77" s="29" t="str">
         <f>'Hoja 1'!C77</f>
-        <v/>
+        <v>Catalina</v>
       </c>
       <c r="C77" s="29" t="str">
         <f>'Hoja 1'!D77</f>
-        <v/>
+        <v>Pérez-Cotapos González</v>
       </c>
       <c r="D77" s="29" t="str">
         <f>"+56"&amp;'Hoja 1'!F77</f>
-        <v>+56</v>
-      </c>
-      <c r="E77" s="29" t="str">
+        <v>+569 5730 5326</v>
+      </c>
+      <c r="E77" s="29">
         <f>'Hoja 1'!E77</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="F77" s="29" t="str">
         <f>'Hoja 1'!I77</f>
-        <v/>
+        <v>[{"name":"Carolina", "lastName":"Ugarte Contreras","email":"cfugarte@uc.cl"}]</v>
       </c>
       <c r="G77" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H77" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="29" t="str">
         <f>'Hoja 1'!B78</f>
-        <v/>
+        <v>jrodvar@gmail.com</v>
       </c>
       <c r="B78" s="29" t="str">
         <f>'Hoja 1'!C78</f>
-        <v/>
+        <v>Joaquín</v>
       </c>
       <c r="C78" s="29" t="str">
         <f>'Hoja 1'!D78</f>
-        <v/>
+        <v>Rodriguez</v>
       </c>
       <c r="D78" s="29" t="str">
         <f>"+56"&amp;'Hoja 1'!F78</f>
-        <v>+56</v>
-      </c>
-      <c r="E78" s="29" t="str">
+        <v>+569 8288 6357</v>
+      </c>
+      <c r="E78" s="29">
         <f>'Hoja 1'!E78</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="F78" s="29" t="str">
         <f>'Hoja 1'!I78</f>
         <v/>
       </c>
       <c r="G78" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H78" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -10770,7 +11285,11 @@
         <v/>
       </c>
       <c r="G79" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H79" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -10799,7 +11318,11 @@
         <v/>
       </c>
       <c r="G80" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H80" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -10828,7 +11351,11 @@
         <v/>
       </c>
       <c r="G81" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H81" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -10857,7 +11384,11 @@
         <v/>
       </c>
       <c r="G82" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H82" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -10886,7 +11417,11 @@
         <v/>
       </c>
       <c r="G83" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H83" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -10915,7 +11450,11 @@
         <v/>
       </c>
       <c r="G84" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H84" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -10944,7 +11483,11 @@
         <v/>
       </c>
       <c r="G85" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H85" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -10973,7 +11516,11 @@
         <v/>
       </c>
       <c r="G86" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H86" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -11002,7 +11549,11 @@
         <v/>
       </c>
       <c r="G87" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H87" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -11031,7 +11582,11 @@
         <v/>
       </c>
       <c r="G88" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H88" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -11060,7 +11615,11 @@
         <v/>
       </c>
       <c r="G89" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H89" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -11089,7 +11648,11 @@
         <v/>
       </c>
       <c r="G90" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H90" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -11118,7 +11681,11 @@
         <v/>
       </c>
       <c r="G91" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H91" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -11147,7 +11714,11 @@
         <v/>
       </c>
       <c r="G92" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H92" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -11176,7 +11747,11 @@
         <v/>
       </c>
       <c r="G93" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H93" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -11205,7 +11780,11 @@
         <v/>
       </c>
       <c r="G94" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H94" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -11234,7 +11813,11 @@
         <v/>
       </c>
       <c r="G95" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H95" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -11263,7 +11846,11 @@
         <v/>
       </c>
       <c r="G96" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H96" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -11292,7 +11879,11 @@
         <v/>
       </c>
       <c r="G97" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H97" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -11321,7 +11912,11 @@
         <v/>
       </c>
       <c r="G98" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H98" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -11350,7 +11945,11 @@
         <v/>
       </c>
       <c r="G99" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H99" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -11379,7 +11978,11 @@
         <v/>
       </c>
       <c r="G100" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H100" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -11408,7 +12011,11 @@
         <v/>
       </c>
       <c r="G101" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H101" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -11437,7 +12044,11 @@
         <v/>
       </c>
       <c r="G102" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H102" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -11466,7 +12077,11 @@
         <v/>
       </c>
       <c r="G103" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H103" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -11495,7 +12110,11 @@
         <v/>
       </c>
       <c r="G104" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H104" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -11524,7 +12143,11 @@
         <v/>
       </c>
       <c r="G105" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H105" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -11553,7 +12176,11 @@
         <v/>
       </c>
       <c r="G106" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H106" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -11582,7 +12209,11 @@
         <v/>
       </c>
       <c r="G107" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H107" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -11611,7 +12242,11 @@
         <v/>
       </c>
       <c r="G108" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H108" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -11640,7 +12275,11 @@
         <v/>
       </c>
       <c r="G109" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H109" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -11669,7 +12308,11 @@
         <v/>
       </c>
       <c r="G110" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H110" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -11698,7 +12341,11 @@
         <v/>
       </c>
       <c r="G111" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H111" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -11727,7 +12374,11 @@
         <v/>
       </c>
       <c r="G112" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H112" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -11756,7 +12407,11 @@
         <v/>
       </c>
       <c r="G113" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H113" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -11785,7 +12440,11 @@
         <v/>
       </c>
       <c r="G114" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H114" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -11814,7 +12473,11 @@
         <v/>
       </c>
       <c r="G115" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H115" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -11843,7 +12506,11 @@
         <v/>
       </c>
       <c r="G116" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H116" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -11872,7 +12539,11 @@
         <v/>
       </c>
       <c r="G117" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H117" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -11901,7 +12572,11 @@
         <v/>
       </c>
       <c r="G118" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H118" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -11930,7 +12605,11 @@
         <v/>
       </c>
       <c r="G119" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H119" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -11959,7 +12638,11 @@
         <v/>
       </c>
       <c r="G120" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H120" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -11988,7 +12671,11 @@
         <v/>
       </c>
       <c r="G121" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H121" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -12017,7 +12704,11 @@
         <v/>
       </c>
       <c r="G122" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H122" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -12046,7 +12737,11 @@
         <v/>
       </c>
       <c r="G123" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H123" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -12075,7 +12770,11 @@
         <v/>
       </c>
       <c r="G124" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H124" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -12104,7 +12803,11 @@
         <v/>
       </c>
       <c r="G125" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H125" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -12133,7 +12836,11 @@
         <v/>
       </c>
       <c r="G126" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H126" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -12162,7 +12869,11 @@
         <v/>
       </c>
       <c r="G127" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H127" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -12191,7 +12902,11 @@
         <v/>
       </c>
       <c r="G128" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H128" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -12220,7 +12935,11 @@
         <v/>
       </c>
       <c r="G129" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H129" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -12249,7 +12968,11 @@
         <v/>
       </c>
       <c r="G130" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H130" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -12278,7 +13001,110 @@
         <v/>
       </c>
       <c r="G131" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="H131" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="29" t="str">
+        <f>'Hoja 1'!B132</f>
+        <v/>
+      </c>
+      <c r="B132" s="29" t="str">
+        <f>'Hoja 1'!C132</f>
+        <v/>
+      </c>
+      <c r="C132" s="29" t="str">
+        <f>'Hoja 1'!D132</f>
+        <v/>
+      </c>
+      <c r="D132" s="29" t="str">
+        <f>"+56"&amp;'Hoja 1'!F132</f>
+        <v>+56</v>
+      </c>
+      <c r="E132" s="29" t="str">
+        <f>'Hoja 1'!E132</f>
+        <v/>
+      </c>
+      <c r="F132" s="29" t="str">
+        <f>'Hoja 1'!I132</f>
+        <v/>
+      </c>
+      <c r="G132" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="H132" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="29" t="str">
+        <f>'Hoja 1'!B133</f>
+        <v/>
+      </c>
+      <c r="B133" s="29" t="str">
+        <f>'Hoja 1'!C133</f>
+        <v/>
+      </c>
+      <c r="C133" s="29" t="str">
+        <f>'Hoja 1'!D133</f>
+        <v/>
+      </c>
+      <c r="D133" s="29" t="str">
+        <f>"+56"&amp;'Hoja 1'!F133</f>
+        <v>+56</v>
+      </c>
+      <c r="E133" s="29" t="str">
+        <f>'Hoja 1'!E133</f>
+        <v/>
+      </c>
+      <c r="F133" s="29" t="str">
+        <f>'Hoja 1'!I133</f>
+        <v/>
+      </c>
+      <c r="G133" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="H133" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="29" t="str">
+        <f>'Hoja 1'!B134</f>
+        <v/>
+      </c>
+      <c r="B134" s="29" t="str">
+        <f>'Hoja 1'!C134</f>
+        <v/>
+      </c>
+      <c r="C134" s="29" t="str">
+        <f>'Hoja 1'!D134</f>
+        <v/>
+      </c>
+      <c r="D134" s="29" t="str">
+        <f>"+56"&amp;'Hoja 1'!F134</f>
+        <v>+56</v>
+      </c>
+      <c r="E134" s="29" t="str">
+        <f>'Hoja 1'!E134</f>
+        <v/>
+      </c>
+      <c r="F134" s="29" t="str">
+        <f>'Hoja 1'!I134</f>
+        <v/>
+      </c>
+      <c r="G134" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="H134" s="29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -12298,7 +13124,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="22" t="s">
-        <v>335</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
